--- a/meeting_agenda_template.xlsx
+++ b/meeting_agenda_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jojuohara/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04B240F-25CB-3B4D-99E1-7F5C2EA9B81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977EC919-23C6-5343-96C3-000E184B80BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11420" yWindow="500" windowWidth="17380" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="720" windowWidth="22860" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agenda" sheetId="2" r:id="rId1"/>
@@ -410,20 +410,20 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -779,7 +779,7 @@
   <dimension ref="A1:AD201"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
@@ -864,11 +864,11 @@
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="27" t="s">
         <v>47</v>
       </c>
       <c r="F3" s="13"/>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="27" t="s">
         <v>48</v>
       </c>
       <c r="H3" s="13"/>
@@ -983,10 +983,10 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="26"/>
+      <c r="J9" s="9"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="20"/>
@@ -1003,10 +1003,10 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="26"/>
+      <c r="J10" s="9"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="20"/>
@@ -1024,10 +1024,10 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="26"/>
+      <c r="J11" s="9"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="20"/>
@@ -1044,10 +1044,10 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="26"/>
+      <c r="J12" s="9"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="20"/>
@@ -1064,10 +1064,10 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="26"/>
+      <c r="J13" s="9"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="20"/>
@@ -1080,8 +1080,8 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="20"/>
@@ -1115,10 +1115,10 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="26" t="s">
+      <c r="I16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="26"/>
+      <c r="J16" s="9"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="20"/>
@@ -1137,10 +1137,10 @@
       <c r="H17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="26"/>
+      <c r="J17" s="29"/>
       <c r="K17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1161,10 +1161,10 @@
       <c r="H18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="26" t="s">
+      <c r="I18" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="26"/>
+      <c r="J18" s="29"/>
       <c r="K18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1185,10 +1185,10 @@
       <c r="H19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="26" t="s">
+      <c r="I19" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="26"/>
+      <c r="J19" s="29"/>
       <c r="K19" s="1" t="s">
         <v>15</v>
       </c>
@@ -1209,10 +1209,10 @@
       <c r="H20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="26" t="s">
+      <c r="I20" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="26"/>
+      <c r="J20" s="29"/>
       <c r="K20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1233,10 +1233,10 @@
       <c r="H21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="I21" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="26"/>
+      <c r="J21" s="29"/>
       <c r="K21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1302,18 +1302,18 @@
       <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
       <c r="H25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
       <c r="M25" s="20"/>
     </row>
     <row r="26" spans="2:13" s="3" customFormat="1">
@@ -1324,10 +1324,10 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="26" t="s">
+      <c r="I26" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J26" s="26"/>
+      <c r="J26" s="9"/>
       <c r="K26" s="1" t="s">
         <v>15</v>
       </c>
@@ -1340,18 +1340,18 @@
       <c r="D27" s="1">
         <v>2</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
       <c r="H27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
       <c r="M27" s="20"/>
     </row>
     <row r="28" spans="2:13" s="3" customFormat="1">
@@ -1362,10 +1362,10 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="26" t="s">
+      <c r="I28" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J28" s="26"/>
+      <c r="J28" s="9"/>
       <c r="K28" s="1" t="s">
         <v>15</v>
       </c>
@@ -1378,18 +1378,18 @@
       <c r="D29" s="1">
         <v>3</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
       <c r="H29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
       <c r="M29" s="20"/>
     </row>
     <row r="30" spans="2:13" s="3" customFormat="1">
@@ -1400,10 +1400,10 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="26" t="s">
+      <c r="I30" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J30" s="26"/>
+      <c r="J30" s="9"/>
       <c r="K30" s="1" t="s">
         <v>15</v>
       </c>
@@ -1455,8 +1455,8 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="20"/>
@@ -1490,10 +1490,10 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="26" t="s">
+      <c r="I35" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J35" s="26"/>
+      <c r="J35" s="9"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="20"/>
@@ -1504,16 +1504,16 @@
       <c r="D36" s="1">
         <v>1</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="26" t="s">
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J36" s="26"/>
+      <c r="J36" s="9"/>
       <c r="K36" s="1" t="s">
         <v>15</v>
       </c>
@@ -1526,16 +1526,16 @@
       <c r="D37" s="1">
         <v>2</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="26" t="s">
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J37" s="26"/>
+      <c r="J37" s="9"/>
       <c r="K37" s="1" t="s">
         <v>15</v>
       </c>
@@ -1548,16 +1548,16 @@
       <c r="D38" s="1">
         <v>3</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="26" t="s">
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J38" s="26"/>
+      <c r="J38" s="9"/>
       <c r="K38" s="1" t="s">
         <v>15</v>
       </c>
@@ -1592,10 +1592,10 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="26" t="s">
+      <c r="I40" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J40" s="26"/>
+      <c r="J40" s="9"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="20"/>
@@ -1612,10 +1612,10 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="26" t="s">
+      <c r="I41" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J41" s="26"/>
+      <c r="J41" s="9"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="20"/>
@@ -1632,10 +1632,10 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="26" t="s">
+      <c r="I42" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J42" s="26"/>
+      <c r="J42" s="9"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="20"/>
@@ -1649,7 +1649,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="9"/>
-      <c r="J43" s="29" t="s">
+      <c r="J43" s="26" t="s">
         <v>46</v>
       </c>
       <c r="K43" s="1"/>
@@ -1671,8 +1671,8 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="20"/>
@@ -1692,8 +1692,8 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="20"/>
@@ -1711,8 +1711,8 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="20"/>
@@ -2993,43 +2993,27 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="36">
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
+  <mergeCells count="20">
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="I29:L29"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="A2:K2"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <printOptions horizontalCentered="1"/>

--- a/meeting_agenda_template.xlsx
+++ b/meeting_agenda_template.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jojuohara/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977EC919-23C6-5343-96C3-000E184B80BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEEE46B-7103-1742-8FB1-9AB9B91D4059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="720" windowWidth="22860" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="6680" windowWidth="21180" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agenda" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Agenda!$A$1:$L$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Agenda!$A$1:$L$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
   <si>
     <t>hybrid　St. Luke’s Garden Tower 15F</t>
   </si>
@@ -114,12 +114,6 @@
   </si>
   <si>
     <t>　・Grammarian’s Report</t>
-  </si>
-  <si>
-    <t>【Award &amp; Guest Comments】----------------------------------------------------------</t>
-  </si>
-  <si>
-    <t>【Business Session】----------------------------------------------------------</t>
   </si>
   <si>
     <t>【Adjournment, Club Photo】</t>
@@ -197,11 +191,27 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>THEME: 　「</t>
+    <t xml:space="preserve">THEME: </t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>」</t>
+    <t>（　　：　　）</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>【Award &amp; Guest Comments】</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>【Business Session】</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* Please kindly note that photos may be shared on social media. </t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   Let us know if you'd prefer not to appear.</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -213,7 +223,7 @@
     <numFmt numFmtId="176" formatCode="&quot;（&quot;General&quot;分）&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;（&quot;General&quot;min）&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -283,6 +293,14 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -331,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -416,13 +434,16 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -483,6 +504,159 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CBA34A6-4BA8-7ACD-CC60-C625B9D328EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6654800" y="10401301"/>
+          <a:ext cx="1282700" cy="990599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>965200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C0584CF-D0C7-A542-BEBC-4CF63147F591}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2717800" y="546101"/>
+          <a:ext cx="1752600" cy="228599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="74000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="83000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="30000"/>
+                <a:lumOff val="70000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -776,10 +950,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD201"/>
+  <dimension ref="A1:AD203"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
@@ -792,8 +966,8 @@
     <col min="6" max="6" width="8.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="2.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="2" style="1" customWidth="1"/>
     <col min="11" max="11" width="3.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.5" style="1" customWidth="1"/>
     <col min="13" max="13" width="2.1640625" style="1" customWidth="1"/>
@@ -826,19 +1000,19 @@
       <c r="AD1" s="3"/>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
-      <c r="A2" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
+      <c r="A2" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
       <c r="L2" s="4"/>
       <c r="M2" s="20"/>
       <c r="N2" s="6"/>
@@ -865,16 +1039,14 @@
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="27" t="s">
-        <v>48</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K3" s="13"/>
       <c r="M3" s="20"/>
@@ -983,8 +1155,8 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="9" t="s">
-        <v>31</v>
+      <c r="I9" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="1"/>
@@ -1003,8 +1175,8 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="9" t="s">
-        <v>32</v>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="1"/>
@@ -1024,8 +1196,8 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="9" t="s">
-        <v>33</v>
+      <c r="I11" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="1"/>
@@ -1044,8 +1216,8 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="9" t="s">
-        <v>34</v>
+      <c r="I12" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="1"/>
@@ -1064,8 +1236,8 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="9" t="s">
-        <v>35</v>
+      <c r="I13" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="1"/>
@@ -1080,8 +1252,8 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="20"/>
@@ -1115,8 +1287,8 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="9" t="s">
-        <v>36</v>
+      <c r="I16" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="1"/>
@@ -1137,10 +1309,10 @@
       <c r="H17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="29" t="s">
+      <c r="I17" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="29"/>
+      <c r="J17" s="28"/>
       <c r="K17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1161,10 +1333,10 @@
       <c r="H18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="29" t="s">
+      <c r="I18" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="29"/>
+      <c r="J18" s="28"/>
       <c r="K18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1185,10 +1357,10 @@
       <c r="H19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="29" t="s">
+      <c r="I19" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="29"/>
+      <c r="J19" s="28"/>
       <c r="K19" s="1" t="s">
         <v>15</v>
       </c>
@@ -1209,10 +1381,10 @@
       <c r="H20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="29" t="s">
+      <c r="I20" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="29"/>
+      <c r="J20" s="28"/>
       <c r="K20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1233,10 +1405,10 @@
       <c r="H21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="29" t="s">
+      <c r="I21" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="29"/>
+      <c r="J21" s="28"/>
       <c r="K21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1279,7 +1451,7 @@
         <v>0.81249999999999989</v>
       </c>
       <c r="C24" s="19">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>17</v>
@@ -1287,7 +1459,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="9"/>
@@ -1302,18 +1474,18 @@
       <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
       <c r="H25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
       <c r="M25" s="20"/>
     </row>
     <row r="26" spans="2:13" s="3" customFormat="1">
@@ -1324,12 +1496,12 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="9" t="s">
-        <v>37</v>
+      <c r="I26" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="20"/>
@@ -1340,18 +1512,18 @@
       <c r="D27" s="1">
         <v>2</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="E27" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
       <c r="H27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
       <c r="M27" s="20"/>
     </row>
     <row r="28" spans="2:13" s="3" customFormat="1">
@@ -1362,12 +1534,12 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="9" t="s">
-        <v>38</v>
+      <c r="I28" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="J28" s="9"/>
       <c r="K28" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="20"/>
@@ -1378,18 +1550,18 @@
       <c r="D29" s="1">
         <v>3</v>
       </c>
-      <c r="E29" s="29" t="s">
+      <c r="E29" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
       <c r="H29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
       <c r="M29" s="20"/>
     </row>
     <row r="30" spans="2:13" s="3" customFormat="1">
@@ -1400,12 +1572,12 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="9" t="s">
-        <v>39</v>
+      <c r="I30" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="20"/>
@@ -1413,17 +1585,21 @@
     <row r="31" spans="2:13" s="3" customFormat="1">
       <c r="B31" s="16"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="D31" s="1">
+        <v>4</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
       <c r="M31" s="20"/>
     </row>
     <row r="32" spans="2:13" s="3" customFormat="1">
@@ -1436,27 +1612,24 @@
       <c r="H32" s="1"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
-      <c r="K32" s="1"/>
+      <c r="K32" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="L32" s="1"/>
       <c r="M32" s="20"/>
     </row>
     <row r="33" spans="2:13" s="3" customFormat="1">
-      <c r="B33" s="16">
-        <f>B24+TIME(0,C24,0)</f>
-        <v>0.83333333333333326</v>
-      </c>
-      <c r="C33" s="19">
-        <v>5</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="1"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="20"/>
@@ -1477,23 +1650,21 @@
     </row>
     <row r="35" spans="2:13" s="3" customFormat="1">
       <c r="B35" s="16">
-        <f>B33+TIME(0,C33,0)</f>
+        <f>B24+TIME(0,C24,0)</f>
         <v>0.83680555555555547</v>
       </c>
       <c r="C35" s="19">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J35" s="9"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="20"/>
@@ -1501,44 +1672,37 @@
     <row r="36" spans="2:13" s="3" customFormat="1">
       <c r="B36" s="16"/>
       <c r="C36" s="15"/>
-      <c r="D36" s="1">
-        <v>1</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="9"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="20"/>
     </row>
     <row r="37" spans="2:13" s="3" customFormat="1">
-      <c r="B37" s="16"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="1">
-        <v>2</v>
-      </c>
-      <c r="E37" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="9" t="s">
-        <v>42</v>
+      <c r="B37" s="16">
+        <f>B35+TIME(0,C35,0)</f>
+        <v>0.84027777777777768</v>
+      </c>
+      <c r="C37" s="19">
+        <v>25</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="J37" s="9"/>
-      <c r="K37" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="20"/>
     </row>
@@ -1546,16 +1710,16 @@
       <c r="B38" s="16"/>
       <c r="C38" s="15"/>
       <c r="D38" s="1">
-        <v>3</v>
-      </c>
-      <c r="E38" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="9" t="s">
-        <v>43</v>
+        <v>1</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="1" t="s">
@@ -1567,54 +1731,58 @@
     <row r="39" spans="2:13" s="3" customFormat="1">
       <c r="B39" s="16"/>
       <c r="C39" s="15"/>
-      <c r="D39" s="1"/>
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
       <c r="E39" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="9"/>
+      <c r="I39" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="J39" s="9"/>
-      <c r="K39" s="1"/>
+      <c r="K39" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="L39" s="1"/>
       <c r="M39" s="20"/>
     </row>
     <row r="40" spans="2:13" s="3" customFormat="1">
       <c r="B40" s="16"/>
-      <c r="C40" s="15">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="1"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="1">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="9" t="s">
-        <v>32</v>
+      <c r="I40" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J40" s="9"/>
-      <c r="K40" s="1"/>
+      <c r="K40" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="L40" s="1"/>
       <c r="M40" s="20"/>
     </row>
     <row r="41" spans="2:13" s="3" customFormat="1">
       <c r="B41" s="16"/>
-      <c r="C41" s="15">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="1"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="I41" s="1"/>
       <c r="J41" s="9"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -1626,14 +1794,14 @@
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="9" t="s">
-        <v>44</v>
+      <c r="I42" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="J42" s="9"/>
       <c r="K42" s="1"/>
@@ -1642,129 +1810,144 @@
     </row>
     <row r="43" spans="2:13" s="3" customFormat="1">
       <c r="B43" s="16"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="1"/>
+      <c r="C43" s="15">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="26" t="s">
-        <v>46</v>
-      </c>
+      <c r="I43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J43" s="9"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="20"/>
     </row>
     <row r="44" spans="2:13" s="3" customFormat="1">
-      <c r="B44" s="16">
-        <f>B35+TIME(0,C35,0)</f>
-        <v>0.85069444444444431</v>
-      </c>
-      <c r="C44" s="19">
-        <v>5</v>
+      <c r="B44" s="16"/>
+      <c r="C44" s="15">
+        <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
+      <c r="I44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J44" s="9"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="20"/>
     </row>
     <row r="45" spans="2:13" s="3" customFormat="1">
-      <c r="B45" s="16">
-        <f>B44+TIME(0,C44,0)</f>
-        <v>0.85416666666666652</v>
-      </c>
-      <c r="C45" s="19">
-        <v>10</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="B45" s="16"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="20"/>
     </row>
     <row r="46" spans="2:13" s="3" customFormat="1">
       <c r="B46" s="16">
-        <f>B45+TIME(0,C45,0)</f>
-        <v>0.86111111111111094</v>
-      </c>
-      <c r="C46" s="15"/>
+        <f>B37+TIME(0,C37,0)</f>
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="C46" s="19">
+        <v>5</v>
+      </c>
       <c r="D46" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="20"/>
     </row>
     <row r="47" spans="2:13" s="3" customFormat="1">
-      <c r="B47" s="16"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="1"/>
+      <c r="B47" s="16">
+        <f>B46+TIME(0,C46,0)</f>
+        <v>0.86111111111111105</v>
+      </c>
+      <c r="C47" s="19">
+        <v>10</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="20"/>
     </row>
     <row r="48" spans="2:13" s="3" customFormat="1">
-      <c r="B48" s="16"/>
+      <c r="B48" s="16">
+        <f>B47+TIME(0,C47,0)</f>
+        <v>0.86805555555555547</v>
+      </c>
       <c r="C48" s="15"/>
-      <c r="D48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="20"/>
     </row>
     <row r="49" spans="1:13" s="3" customFormat="1">
-      <c r="A49" s="21"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
       <c r="M49" s="20"/>
     </row>
     <row r="50" spans="1:13" s="3" customFormat="1">
       <c r="B50" s="16"/>
       <c r="C50" s="15"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
+      <c r="E50" s="31" t="s">
+        <v>50</v>
+      </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -1772,21 +1955,22 @@
       <c r="J50" s="9"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-      <c r="M50" s="2"/>
+      <c r="M50" s="20"/>
     </row>
     <row r="51" spans="1:13" s="3" customFormat="1">
-      <c r="B51" s="16"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="2"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="20"/>
     </row>
     <row r="52" spans="1:13" s="3" customFormat="1">
       <c r="B52" s="16"/>
@@ -2178,6 +2362,7 @@
       <c r="J79" s="9"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
+      <c r="M79" s="2"/>
     </row>
     <row r="80" spans="2:13" s="3" customFormat="1">
       <c r="B80" s="16"/>
@@ -2191,6 +2376,7 @@
       <c r="J80" s="9"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
+      <c r="M80" s="2"/>
     </row>
     <row r="81" spans="2:12" s="3" customFormat="1">
       <c r="B81" s="16"/>
@@ -2466,28 +2652,28 @@
       <c r="L101" s="1"/>
     </row>
     <row r="102" spans="2:12" s="3" customFormat="1">
-      <c r="B102" s="7"/>
-      <c r="C102" s="8"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="15"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
     </row>
     <row r="103" spans="2:12" s="3" customFormat="1">
-      <c r="B103" s="7"/>
-      <c r="C103" s="8"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="15"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
     </row>
@@ -2647,13 +2833,31 @@
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
     </row>
-    <row r="116" spans="2:12">
+    <row r="116" spans="2:12" s="3" customFormat="1">
       <c r="B116" s="7"/>
       <c r="C116" s="8"/>
-    </row>
-    <row r="117" spans="2:12">
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+    </row>
+    <row r="117" spans="2:12" s="3" customFormat="1">
       <c r="B117" s="7"/>
       <c r="C117" s="8"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
     </row>
     <row r="118" spans="2:12">
       <c r="B118" s="7"/>
@@ -2991,29 +3195,35 @@
       <c r="B201" s="7"/>
       <c r="C201" s="8"/>
     </row>
+    <row r="202" spans="2:3">
+      <c r="B202" s="7"/>
+      <c r="C202" s="8"/>
+    </row>
+    <row r="203" spans="2:3">
+      <c r="B203" s="7"/>
+      <c r="C203" s="8"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="20">
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="I29:L29"/>
+  <mergeCells count="18">
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="I31:L31"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <printOptions horizontalCentered="1"/>

--- a/meeting_agenda_template.xlsx
+++ b/meeting_agenda_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jojuohara/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEEE46B-7103-1742-8FB1-9AB9B91D4059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E9DDFC-0B1B-E445-8F02-058FCA3EED93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="6680" windowWidth="21180" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Agenda" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Agenda!$A$1:$L$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Agenda!$A$1:$L$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>hybrid　St. Luke’s Garden Tower 15F</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>【Toastmaster of the Evening】------------------------------------------------------------------------------</t>
-  </si>
-  <si>
-    <t>Word of the Evening 「　　　　　　　　　　　　　　　　」</t>
   </si>
   <si>
     <t>　・Ah-Counter</t>
@@ -212,6 +209,22 @@
   </si>
   <si>
     <t xml:space="preserve">   Let us know if you'd prefer not to appear.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Word of the Evening 「　　　　　　　　　　　　　」</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>　・Timer</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>TM</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>「</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -437,14 +450,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -508,13 +521,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>863600</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -950,10 +963,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD203"/>
+  <dimension ref="A1:AD204"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31:L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
@@ -1000,19 +1013,19 @@
       <c r="AD1" s="3"/>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
-      <c r="A2" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="A2" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
       <c r="L2" s="4"/>
       <c r="M2" s="20"/>
       <c r="N2" s="6"/>
@@ -1038,15 +1051,15 @@
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="27" t="s">
-        <v>45</v>
+      <c r="E3" s="31" t="s">
+        <v>44</v>
       </c>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K3" s="13"/>
       <c r="M3" s="20"/>
@@ -1156,7 +1169,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="1"/>
@@ -1169,14 +1182,14 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="1"/>
@@ -1190,14 +1203,14 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="1"/>
@@ -1210,14 +1223,14 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="1"/>
@@ -1230,14 +1243,14 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="1"/>
@@ -1246,14 +1259,20 @@
     </row>
     <row r="14" spans="1:30" s="3" customFormat="1">
       <c r="B14" s="16"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="1"/>
+      <c r="C14" s="15">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
+      <c r="I14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="9"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="20"/>
@@ -1281,14 +1300,14 @@
         <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="1"/>
@@ -1302,19 +1321,19 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="28" t="s">
         <v>13</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>14</v>
       </c>
       <c r="J17" s="28"/>
       <c r="K17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="20"/>
@@ -1326,19 +1345,19 @@
         <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="28" t="s">
         <v>13</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>14</v>
       </c>
       <c r="J18" s="28"/>
       <c r="K18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="20"/>
@@ -1350,19 +1369,19 @@
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="28" t="s">
         <v>13</v>
-      </c>
-      <c r="I19" s="28" t="s">
-        <v>14</v>
       </c>
       <c r="J19" s="28"/>
       <c r="K19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="20"/>
@@ -1374,19 +1393,19 @@
         <v>4</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="28" t="s">
         <v>13</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>14</v>
       </c>
       <c r="J20" s="28"/>
       <c r="K20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="20"/>
@@ -1398,19 +1417,19 @@
         <v>5</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="28" t="s">
         <v>13</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>14</v>
       </c>
       <c r="J21" s="28"/>
       <c r="K21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="20"/>
@@ -1420,7 +1439,7 @@
       <c r="C22" s="15"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1454,12 +1473,12 @@
         <v>35</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="9"/>
@@ -1474,18 +1493,18 @@
       <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
       <c r="M25" s="20"/>
     </row>
     <row r="26" spans="2:13" s="3" customFormat="1">
@@ -1497,11 +1516,11 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="20"/>
@@ -1512,18 +1531,18 @@
       <c r="D27" s="1">
         <v>2</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
       <c r="M27" s="20"/>
     </row>
     <row r="28" spans="2:13" s="3" customFormat="1">
@@ -1535,11 +1554,11 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J28" s="9"/>
       <c r="K28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="20"/>
@@ -1550,18 +1569,18 @@
       <c r="D29" s="1">
         <v>3</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
       <c r="M29" s="20"/>
     </row>
     <row r="30" spans="2:13" s="3" customFormat="1">
@@ -1573,11 +1592,11 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="20"/>
@@ -1588,18 +1607,18 @@
       <c r="D31" s="1">
         <v>4</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
       <c r="M31" s="20"/>
     </row>
     <row r="32" spans="2:13" s="3" customFormat="1">
@@ -1613,7 +1632,7 @@
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="20"/>
@@ -1623,7 +1642,7 @@
       <c r="C33" s="15"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1634,7 +1653,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="20"/>
     </row>
-    <row r="34" spans="2:13" s="3" customFormat="1">
+    <row r="34" spans="2:13" s="3" customFormat="1" ht="5" customHeight="1">
       <c r="B34" s="16"/>
       <c r="C34" s="15"/>
       <c r="D34" s="1"/>
@@ -1657,7 +1676,7 @@
         <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1669,9 +1688,9 @@
       <c r="L35" s="1"/>
       <c r="M35" s="20"/>
     </row>
-    <row r="36" spans="2:13" s="3" customFormat="1">
+    <row r="36" spans="2:13" s="3" customFormat="1" ht="5" customHeight="1">
       <c r="B36" s="16"/>
-      <c r="C36" s="15"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -1692,14 +1711,14 @@
         <v>25</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="1"/>
@@ -1713,17 +1732,17 @@
         <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="20"/>
@@ -1735,17 +1754,17 @@
         <v>2</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="20"/>
@@ -1757,17 +1776,17 @@
         <v>3</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="20"/>
@@ -1775,34 +1794,32 @@
     <row r="41" spans="2:13" s="3" customFormat="1">
       <c r="B41" s="16"/>
       <c r="C41" s="15"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="D41" s="1">
+        <v>4</v>
+      </c>
+      <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="9"/>
-      <c r="K41" s="1"/>
+      <c r="K41" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="L41" s="1"/>
       <c r="M41" s="20"/>
     </row>
     <row r="42" spans="2:13" s="3" customFormat="1">
       <c r="B42" s="16"/>
-      <c r="C42" s="15">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E42" s="1"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="I42" s="1"/>
       <c r="J42" s="9"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -1814,14 +1831,14 @@
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J43" s="9"/>
       <c r="K43" s="1"/>
@@ -1834,14 +1851,14 @@
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="1"/>
@@ -1850,51 +1867,50 @@
     </row>
     <row r="45" spans="2:13" s="3" customFormat="1">
       <c r="B45" s="16"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="1"/>
+      <c r="C45" s="15">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="26" t="s">
-        <v>44</v>
-      </c>
+      <c r="I45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J45" s="9"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="20"/>
     </row>
     <row r="46" spans="2:13" s="3" customFormat="1">
-      <c r="B46" s="16">
-        <f>B37+TIME(0,C37,0)</f>
-        <v>0.85763888888888884</v>
-      </c>
-      <c r="C46" s="19">
-        <v>5</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="B46" s="16"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="26" t="s">
+        <v>43</v>
+      </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="20"/>
     </row>
     <row r="47" spans="2:13" s="3" customFormat="1">
       <c r="B47" s="16">
-        <f>B46+TIME(0,C46,0)</f>
-        <v>0.86111111111111105</v>
+        <f>B37+TIME(0,C37,0)</f>
+        <v>0.85763888888888884</v>
       </c>
       <c r="C47" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1909,11 +1925,13 @@
     <row r="48" spans="2:13" s="3" customFormat="1">
       <c r="B48" s="16">
         <f>B47+TIME(0,C47,0)</f>
-        <v>0.86805555555555547</v>
-      </c>
-      <c r="C48" s="15"/>
+        <v>0.86111111111111105</v>
+      </c>
+      <c r="C48" s="19">
+        <v>10</v>
+      </c>
       <c r="D48" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -1926,17 +1944,20 @@
       <c r="M48" s="20"/>
     </row>
     <row r="49" spans="1:13" s="3" customFormat="1">
-      <c r="B49" s="16"/>
+      <c r="B49" s="16">
+        <f>B48+TIME(0,C48,0)</f>
+        <v>0.86805555555555547</v>
+      </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="31" t="s">
-        <v>49</v>
-      </c>
+      <c r="D49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="20"/>
@@ -1945,8 +1966,8 @@
       <c r="B50" s="16"/>
       <c r="C50" s="15"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="31" t="s">
-        <v>50</v>
+      <c r="E50" s="30" t="s">
+        <v>48</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -1958,33 +1979,35 @@
       <c r="M50" s="20"/>
     </row>
     <row r="51" spans="1:13" s="3" customFormat="1">
-      <c r="A51" s="21"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
       <c r="M51" s="20"/>
     </row>
     <row r="52" spans="1:13" s="3" customFormat="1">
-      <c r="B52" s="16"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="2"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="20"/>
     </row>
     <row r="53" spans="1:13" s="3" customFormat="1">
       <c r="B53" s="16"/>
@@ -2378,7 +2401,7 @@
       <c r="L80" s="1"/>
       <c r="M80" s="2"/>
     </row>
-    <row r="81" spans="2:12" s="3" customFormat="1">
+    <row r="81" spans="2:13" s="3" customFormat="1">
       <c r="B81" s="16"/>
       <c r="C81" s="15"/>
       <c r="D81" s="1"/>
@@ -2390,8 +2413,9 @@
       <c r="J81" s="9"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
-    </row>
-    <row r="82" spans="2:12" s="3" customFormat="1">
+      <c r="M81" s="2"/>
+    </row>
+    <row r="82" spans="2:13" s="3" customFormat="1">
       <c r="B82" s="16"/>
       <c r="C82" s="15"/>
       <c r="D82" s="1"/>
@@ -2404,7 +2428,7 @@
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
     </row>
-    <row r="83" spans="2:12" s="3" customFormat="1">
+    <row r="83" spans="2:13" s="3" customFormat="1">
       <c r="B83" s="16"/>
       <c r="C83" s="15"/>
       <c r="D83" s="1"/>
@@ -2417,7 +2441,7 @@
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
     </row>
-    <row r="84" spans="2:12" s="3" customFormat="1">
+    <row r="84" spans="2:13" s="3" customFormat="1">
       <c r="B84" s="16"/>
       <c r="C84" s="15"/>
       <c r="D84" s="1"/>
@@ -2430,7 +2454,7 @@
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
     </row>
-    <row r="85" spans="2:12" s="3" customFormat="1">
+    <row r="85" spans="2:13" s="3" customFormat="1">
       <c r="B85" s="16"/>
       <c r="C85" s="15"/>
       <c r="D85" s="1"/>
@@ -2443,7 +2467,7 @@
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
     </row>
-    <row r="86" spans="2:12" s="3" customFormat="1">
+    <row r="86" spans="2:13" s="3" customFormat="1">
       <c r="B86" s="16"/>
       <c r="C86" s="15"/>
       <c r="D86" s="1"/>
@@ -2456,7 +2480,7 @@
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
     </row>
-    <row r="87" spans="2:12" s="3" customFormat="1">
+    <row r="87" spans="2:13" s="3" customFormat="1">
       <c r="B87" s="16"/>
       <c r="C87" s="15"/>
       <c r="D87" s="1"/>
@@ -2469,7 +2493,7 @@
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
     </row>
-    <row r="88" spans="2:12" s="3" customFormat="1">
+    <row r="88" spans="2:13" s="3" customFormat="1">
       <c r="B88" s="16"/>
       <c r="C88" s="15"/>
       <c r="D88" s="1"/>
@@ -2482,7 +2506,7 @@
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
     </row>
-    <row r="89" spans="2:12" s="3" customFormat="1">
+    <row r="89" spans="2:13" s="3" customFormat="1">
       <c r="B89" s="16"/>
       <c r="C89" s="15"/>
       <c r="D89" s="1"/>
@@ -2495,7 +2519,7 @@
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
     </row>
-    <row r="90" spans="2:12" s="3" customFormat="1">
+    <row r="90" spans="2:13" s="3" customFormat="1">
       <c r="B90" s="16"/>
       <c r="C90" s="15"/>
       <c r="D90" s="1"/>
@@ -2508,7 +2532,7 @@
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
     </row>
-    <row r="91" spans="2:12" s="3" customFormat="1">
+    <row r="91" spans="2:13" s="3" customFormat="1">
       <c r="B91" s="16"/>
       <c r="C91" s="15"/>
       <c r="D91" s="1"/>
@@ -2521,7 +2545,7 @@
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
     </row>
-    <row r="92" spans="2:12" s="3" customFormat="1">
+    <row r="92" spans="2:13" s="3" customFormat="1">
       <c r="B92" s="16"/>
       <c r="C92" s="15"/>
       <c r="D92" s="1"/>
@@ -2534,7 +2558,7 @@
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
     </row>
-    <row r="93" spans="2:12" s="3" customFormat="1">
+    <row r="93" spans="2:13" s="3" customFormat="1">
       <c r="B93" s="16"/>
       <c r="C93" s="15"/>
       <c r="D93" s="1"/>
@@ -2547,7 +2571,7 @@
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
     </row>
-    <row r="94" spans="2:12" s="3" customFormat="1">
+    <row r="94" spans="2:13" s="3" customFormat="1">
       <c r="B94" s="16"/>
       <c r="C94" s="15"/>
       <c r="D94" s="1"/>
@@ -2560,7 +2584,7 @@
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
     </row>
-    <row r="95" spans="2:12" s="3" customFormat="1">
+    <row r="95" spans="2:13" s="3" customFormat="1">
       <c r="B95" s="16"/>
       <c r="C95" s="15"/>
       <c r="D95" s="1"/>
@@ -2573,7 +2597,7 @@
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
     </row>
-    <row r="96" spans="2:12" s="3" customFormat="1">
+    <row r="96" spans="2:13" s="3" customFormat="1">
       <c r="B96" s="16"/>
       <c r="C96" s="15"/>
       <c r="D96" s="1"/>
@@ -2678,15 +2702,15 @@
       <c r="L103" s="1"/>
     </row>
     <row r="104" spans="2:12" s="3" customFormat="1">
-      <c r="B104" s="7"/>
-      <c r="C104" s="8"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="15"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
     </row>
@@ -2859,9 +2883,18 @@
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
     </row>
-    <row r="118" spans="2:12">
+    <row r="118" spans="2:12" s="3" customFormat="1">
       <c r="B118" s="7"/>
       <c r="C118" s="8"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
     </row>
     <row r="119" spans="2:12">
       <c r="B119" s="7"/>
@@ -3203,27 +3236,22 @@
       <c r="B203" s="7"/>
       <c r="C203" s="8"/>
     </row>
+    <row r="204" spans="2:3">
+      <c r="B204" s="7"/>
+      <c r="C204" s="8"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="18">
-    <mergeCell ref="I14:J14"/>
+  <mergeCells count="9">
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="I18:J18"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="I31:L31"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I21:J21"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="I25:L25"/>
     <mergeCell ref="I35:J35"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I46:J46"/>
     <mergeCell ref="I47:J47"/>
     <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I49:J49"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <printOptions horizontalCentered="1"/>

--- a/meeting_agenda_template.xlsx
+++ b/meeting_agenda_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jojuohara/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jojuohara/Documents/書類 - JOJUのMacBook Air/python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E9DDFC-0B1B-E445-8F02-058FCA3EED93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543204DF-1F37-2140-96B0-79E954D7C6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="6680" windowWidth="21180" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -315,7 +315,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,6 +349,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -362,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -447,17 +453,23 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,203 +486,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1285875" cy="876300"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 3" descr="http://www.toastmasters.org/OtherImages/LogoTaglineLockupJPG">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CBA34A6-4BA8-7ACD-CC60-C625B9D328EB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6654800" y="10401301"/>
-          <a:ext cx="1282700" cy="990599"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>965200</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>12701</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C0584CF-D0C7-A542-BEBC-4CF63147F591}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2717800" y="546101"/>
-          <a:ext cx="1752600" cy="228599"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="5000"/>
-                <a:lumOff val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="74000">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="45000"/>
-                <a:lumOff val="55000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="83000">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="45000"/>
-                <a:lumOff val="55000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="30000"/>
-                <a:lumOff val="70000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-        </a:gradFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -965,8 +780,8 @@
   </sheetPr>
   <dimension ref="A1:AD204"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31:L31"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
@@ -1013,19 +828,19 @@
       <c r="AD1" s="3"/>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
       <c r="L2" s="4"/>
       <c r="M2" s="20"/>
       <c r="N2" s="6"/>
@@ -1051,17 +866,16 @@
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="30" t="s">
         <v>44</v>
       </c>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="13"/>
       <c r="M3" s="20"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -1082,7 +896,7 @@
       <c r="AD3" s="3"/>
     </row>
     <row r="4" spans="1:30" s="3" customFormat="1">
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M4" s="20"/>
@@ -1328,10 +1142,10 @@
       <c r="H17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="28" t="s">
+      <c r="I17" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="28"/>
+      <c r="J17" s="31"/>
       <c r="K17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1352,10 +1166,10 @@
       <c r="H18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="28" t="s">
+      <c r="I18" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="28"/>
+      <c r="J18" s="31"/>
       <c r="K18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1376,10 +1190,10 @@
       <c r="H19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="28" t="s">
+      <c r="I19" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="J19" s="28"/>
+      <c r="J19" s="31"/>
       <c r="K19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1400,10 +1214,10 @@
       <c r="H20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="28" t="s">
+      <c r="I20" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="28"/>
+      <c r="J20" s="31"/>
       <c r="K20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1424,10 +1238,10 @@
       <c r="H21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="28" t="s">
+      <c r="I21" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="28"/>
+      <c r="J21" s="31"/>
       <c r="K21" s="1" t="s">
         <v>14</v>
       </c>
@@ -1682,8 +1496,8 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="20"/>
@@ -1916,10 +1730,10 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="33"/>
       <c r="M47" s="20"/>
     </row>
     <row r="48" spans="2:13" s="3" customFormat="1">
@@ -1937,10 +1751,10 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="33"/>
       <c r="M48" s="20"/>
     </row>
     <row r="49" spans="1:13" s="3" customFormat="1">
@@ -1956,42 +1770,42 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="33"/>
       <c r="M49" s="20"/>
     </row>
     <row r="50" spans="1:13" s="3" customFormat="1">
       <c r="B50" s="16"/>
       <c r="C50" s="15"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="30" t="s">
+      <c r="E50" s="29" t="s">
         <v>48</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="33"/>
       <c r="M50" s="20"/>
     </row>
     <row r="51" spans="1:13" s="3" customFormat="1">
       <c r="B51" s="16"/>
       <c r="C51" s="15"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="30" t="s">
+      <c r="E51" s="29" t="s">
         <v>49</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="33"/>
       <c r="M51" s="20"/>
     </row>
     <row r="52" spans="1:13" s="3" customFormat="1">
@@ -3242,22 +3056,18 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="9">
+  <mergeCells count="6">
+    <mergeCell ref="I35:J35"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I49:J49"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.11811023622047249" bottom="0.15748031496062989" header="0.11811023622047249" footer="0.11811023622047249"/>
   <pageSetup paperSize="9" scale="62" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/meeting_agenda_template.xlsx
+++ b/meeting_agenda_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jojuohara/Documents/書類 - JOJUのMacBook Air/python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543204DF-1F37-2140-96B0-79E954D7C6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998D11FE-6FBE-F54A-ACAC-EAB9DF72F429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="6680" windowWidth="21180" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
-    <t>hybrid　St. Luke’s Garden Tower 15F</t>
-  </si>
-  <si>
     <t>19:00</t>
   </si>
   <si>
@@ -225,6 +222,10 @@
   </si>
   <si>
     <t>「</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>place</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -462,14 +463,14 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -780,8 +781,8 @@
   </sheetPr>
   <dimension ref="A1:AD204"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
@@ -829,7 +830,7 @@
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="A2" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -867,14 +868,14 @@
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="K3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M3" s="20"/>
       <c r="N3" s="6"/>
@@ -897,7 +898,7 @@
     </row>
     <row r="4" spans="1:30" s="3" customFormat="1">
       <c r="K4" s="5" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="M4" s="20"/>
     </row>
@@ -909,13 +910,13 @@
     </row>
     <row r="6" spans="1:30" s="3" customFormat="1">
       <c r="B6" s="18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="19">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -931,7 +932,7 @@
       <c r="B7" s="16"/>
       <c r="C7" s="15"/>
       <c r="D7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -943,7 +944,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="20"/>
       <c r="N7" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -962,7 +963,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="20"/>
       <c r="N8" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
@@ -976,14 +977,14 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="1"/>
@@ -996,14 +997,14 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="1"/>
@@ -1017,14 +1018,14 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="1"/>
@@ -1037,14 +1038,14 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="1"/>
@@ -1057,14 +1058,14 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="1"/>
@@ -1077,14 +1078,14 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="1"/>
@@ -1114,14 +1115,14 @@
         <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="1"/>
@@ -1135,19 +1136,19 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="31" t="s">
+      <c r="J17" s="33"/>
+      <c r="K17" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="J17" s="31"/>
-      <c r="K17" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="20"/>
@@ -1159,19 +1160,19 @@
         <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="31" t="s">
+      <c r="J18" s="33"/>
+      <c r="K18" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="J18" s="31"/>
-      <c r="K18" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="20"/>
@@ -1183,19 +1184,19 @@
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="31" t="s">
+      <c r="J19" s="33"/>
+      <c r="K19" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="J19" s="31"/>
-      <c r="K19" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="20"/>
@@ -1207,19 +1208,19 @@
         <v>4</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="31" t="s">
+      <c r="J20" s="33"/>
+      <c r="K20" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="J20" s="31"/>
-      <c r="K20" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="20"/>
@@ -1231,19 +1232,19 @@
         <v>5</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="31" t="s">
+      <c r="J21" s="33"/>
+      <c r="K21" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="J21" s="31"/>
-      <c r="K21" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="20"/>
@@ -1253,7 +1254,7 @@
       <c r="C22" s="15"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1287,12 +1288,12 @@
         <v>35</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="9"/>
@@ -1308,12 +1309,12 @@
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1330,11 +1331,11 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="20"/>
@@ -1346,12 +1347,12 @@
         <v>2</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1368,11 +1369,11 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J28" s="9"/>
       <c r="K28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="20"/>
@@ -1384,12 +1385,12 @@
         <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1406,11 +1407,11 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="20"/>
@@ -1422,12 +1423,12 @@
         <v>4</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1446,7 +1447,7 @@
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="20"/>
@@ -1456,7 +1457,7 @@
       <c r="C33" s="15"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1490,14 +1491,14 @@
         <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="20"/>
@@ -1525,14 +1526,14 @@
         <v>25</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="1"/>
@@ -1546,17 +1547,17 @@
         <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="20"/>
@@ -1568,17 +1569,17 @@
         <v>2</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="20"/>
@@ -1590,17 +1591,17 @@
         <v>3</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="20"/>
@@ -1618,7 +1619,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="9"/>
       <c r="K41" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="20"/>
@@ -1628,7 +1629,7 @@
       <c r="C42" s="15"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -1645,14 +1646,14 @@
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J43" s="9"/>
       <c r="K43" s="1"/>
@@ -1665,14 +1666,14 @@
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="1"/>
@@ -1685,14 +1686,14 @@
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J45" s="9"/>
       <c r="K45" s="1"/>
@@ -1709,7 +1710,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="9"/>
       <c r="J46" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -1724,16 +1725,16 @@
         <v>5</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="9"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="33"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="32"/>
       <c r="M47" s="20"/>
     </row>
     <row r="48" spans="2:13" s="3" customFormat="1">
@@ -1745,16 +1746,16 @@
         <v>10</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="9"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="33"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="32"/>
       <c r="M48" s="20"/>
     </row>
     <row r="49" spans="1:13" s="3" customFormat="1">
@@ -1764,16 +1765,16 @@
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="9"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="33"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="32"/>
       <c r="M49" s="20"/>
     </row>
     <row r="50" spans="1:13" s="3" customFormat="1">
@@ -1781,15 +1782,15 @@
       <c r="C50" s="15"/>
       <c r="D50" s="1"/>
       <c r="E50" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="9"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="33"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="32"/>
       <c r="M50" s="20"/>
     </row>
     <row r="51" spans="1:13" s="3" customFormat="1">
@@ -1797,15 +1798,15 @@
       <c r="C51" s="15"/>
       <c r="D51" s="1"/>
       <c r="E51" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="9"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="33"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="32"/>
       <c r="M51" s="20"/>
     </row>
     <row r="52" spans="1:13" s="3" customFormat="1">

--- a/meeting_agenda_template.xlsx
+++ b/meeting_agenda_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jojuohara/Documents/書類 - JOJUのMacBook Air/python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998D11FE-6FBE-F54A-ACAC-EAB9DF72F429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53DEB1A-12FC-CA45-8A43-2623367AD217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="6680" windowWidth="21180" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,197 +36,879 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
   <si>
     <t>19:00</t>
   </si>
   <si>
-    <t>【President Calls Meeting to Order】-----------------------------------------------------------</t>
-  </si>
-  <si>
-    <t>　・Opening remarks</t>
-  </si>
-  <si>
-    <t>←C列に数字を入れると</t>
-  </si>
-  <si>
-    <t>　　時間が自動的に計算されます</t>
-  </si>
-  <si>
-    <t>【Toastmaster of the Evening】------------------------------------------------------------------------------</t>
-  </si>
-  <si>
-    <t>　・Ah-Counter</t>
-  </si>
-  <si>
-    <t>　・Grammarian</t>
-  </si>
-  <si>
-    <t>　・PC Manager (Vote Counter)</t>
-  </si>
-  <si>
-    <t>【Table Topics Session (1-2 min ±30 sec)】------------------------------------------------------------------------------</t>
-  </si>
-  <si>
-    <t>「</t>
-  </si>
-  <si>
-    <t>」</t>
-  </si>
-  <si>
-    <t>（　　　　　　　）</t>
-  </si>
-  <si>
-    <t>（　　：　　）</t>
-  </si>
-  <si>
-    <t>《Timer's Report and Vote》</t>
-  </si>
-  <si>
-    <t>【Prepared Speech Session】</t>
-  </si>
-  <si>
-    <t>～&lt;--- Short break ---&gt;～</t>
-  </si>
-  <si>
-    <t>【Evaluation Session (2-3 min ±30 sec)】------------------------------------------------------------------------------</t>
-  </si>
-  <si>
-    <t>Evaluation for Speech1（TM Rintaro Tanimura）</t>
-  </si>
-  <si>
-    <t>Evaluation for Speech2（TM Akiko Tou）</t>
-  </si>
-  <si>
-    <t>Evaluation for Speech3（TM Toshiki Tanaka (CarlosT)）</t>
-  </si>
-  <si>
-    <t>　・WoE's Report</t>
-  </si>
-  <si>
-    <t>　・Ah-Counter’s Report</t>
-  </si>
-  <si>
-    <t>　・Grammarian’s Report</t>
-  </si>
-  <si>
-    <t>【Adjournment, Club Photo】</t>
-  </si>
-  <si>
     <t>Otemachi Toastmasters Club</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>date</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>TMOE</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>WOE</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>AH</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>GR</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>PC</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>TTM</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>SP1</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>SP2</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>SP3</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>GE</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>EV1</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>EV2</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>EV3</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>GM</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>※2min comment time after each speech</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Google Form:</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t xml:space="preserve">THEME: </t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>（　　：　　）</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>【Award &amp; Guest Comments】</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>【Business Session】</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t xml:space="preserve">* Please kindly note that photos may be shared on social media. </t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t xml:space="preserve">   Let us know if you'd prefer not to appear.</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Word of the Evening 「　　　　　　　　　　　　　」</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>　・Timer</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>TM</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>「</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>place</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://us05web.zoom.us/j/81363948736?pwd=WW5KN05RU21uKzN3VENsY3g4bE82dz09</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>President Calls Meeting to Order</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-----------------------------------------------------------</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Opening remarks</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>列に数字を入れると</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　　時間が自動的に計算されます</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Toastmaster of the Evening</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>------------------------------------------------------------------------------</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Word of the Evening </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「　　　　　　　　　　　　　」</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ah-Counter</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Grammarian</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Timer</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PC Manager (Vote Counter)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Table Topics Session (1-2 min ±30 sec)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>------------------------------------------------------------------------------</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（　　　　　　　）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（　　：　　）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>《</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Timer's Report and Vote</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>》</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Prepared Speech Session</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2min comment time after each speech</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（　　：　　）</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;--- Short break ---&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>～</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Evaluation Session (2-3 min ±30 sec)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>------------------------------------------------------------------------------</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Evaluation for Speech1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>TM Rintaro Tanimura</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Evaluation for Speech2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>TM Akiko Tou</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Evaluation for Speech3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>TM Toshiki Tanaka (CarlosT)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>WoE's Report</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ah-Counter’s Report</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Grammarian’s Report</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Award &amp; Guest Comments</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Business Session</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Adjournment, Club Photo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>Zoom Link:</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -237,7 +919,7 @@
     <numFmt numFmtId="176" formatCode="&quot;（&quot;General&quot;分）&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;（&quot;General&quot;min）&quot;"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -258,62 +940,83 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="6"/>
+      <name val="Tsukushi A Round Gothic Bold"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <u/>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="Tsukushi A Round Gothic Bold"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -366,114 +1069,125 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -781,11 +1495,11 @@
   </sheetPr>
   <dimension ref="A1:AD204"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" style="1" customWidth="1"/>
@@ -805,118 +1519,126 @@
     <col min="16" max="16" width="14.5" style="1" customWidth="1"/>
     <col min="17" max="17" width="5.83203125" style="1" customWidth="1"/>
     <col min="18" max="18" width="9" style="1"/>
+    <col min="19" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
-      <c r="L1" s="12"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
-      <c r="A2" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="K3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-    </row>
-    <row r="4" spans="1:30" s="3" customFormat="1">
-      <c r="K4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="20"/>
-    </row>
-    <row r="5" spans="1:30" s="3" customFormat="1">
-      <c r="B5" s="17"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="K3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+    </row>
+    <row r="4" spans="1:30" s="4" customFormat="1">
+      <c r="K4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:30" s="4" customFormat="1">
+      <c r="B5" s="13"/>
       <c r="C5" s="14"/>
-      <c r="J5" s="5"/>
-      <c r="M5" s="20"/>
-    </row>
-    <row r="6" spans="1:30" s="3" customFormat="1">
-      <c r="B6" s="18" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="L5" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:30" s="4" customFormat="1" ht="18">
+      <c r="B6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="16">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -926,689 +1648,689 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="20"/>
-    </row>
-    <row r="7" spans="1:30" s="3" customFormat="1">
-      <c r="B7" s="16"/>
-      <c r="C7" s="15"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:30" s="4" customFormat="1" ht="18">
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-    </row>
-    <row r="8" spans="1:30" s="3" customFormat="1">
-      <c r="B8" s="16"/>
-      <c r="C8" s="15"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+    </row>
+    <row r="8" spans="1:30" s="4" customFormat="1" ht="16">
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-    </row>
-    <row r="9" spans="1:30" s="3" customFormat="1">
-      <c r="B9" s="16">
+      <c r="M8" s="3"/>
+      <c r="N8" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+    </row>
+    <row r="9" spans="1:30" s="4" customFormat="1" ht="18">
+      <c r="B9" s="17">
         <f>B6+TIME(0,C6,0)</f>
         <v>0.79513888888888884</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="16">
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="J9" s="19"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="20"/>
-    </row>
-    <row r="10" spans="1:30" s="3" customFormat="1">
-      <c r="B10" s="16"/>
-      <c r="C10" s="15">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:30" s="4" customFormat="1" ht="18">
+      <c r="B10" s="17"/>
+      <c r="C10" s="18">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="J10" s="19"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="8"/>
-    </row>
-    <row r="11" spans="1:30" s="3" customFormat="1">
-      <c r="B11" s="16"/>
-      <c r="C11" s="15">
+      <c r="M10" s="3"/>
+      <c r="N10" s="22"/>
+    </row>
+    <row r="11" spans="1:30" s="4" customFormat="1" ht="18">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="J11" s="19"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="20"/>
-    </row>
-    <row r="12" spans="1:30" s="3" customFormat="1">
-      <c r="B12" s="16"/>
-      <c r="C12" s="15">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" s="4" customFormat="1" ht="18">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="J12" s="19"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="20"/>
-    </row>
-    <row r="13" spans="1:30" s="3" customFormat="1">
-      <c r="B13" s="16"/>
-      <c r="C13" s="15">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:30" s="4" customFormat="1" ht="18">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="J13" s="19"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="20"/>
-    </row>
-    <row r="14" spans="1:30" s="3" customFormat="1">
-      <c r="B14" s="16"/>
-      <c r="C14" s="15">
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:30" s="4" customFormat="1" ht="18">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="J14" s="19"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="20"/>
-    </row>
-    <row r="15" spans="1:30" s="3" customFormat="1">
-      <c r="B15" s="16"/>
-      <c r="C15" s="15"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:30" s="4" customFormat="1">
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="20"/>
-    </row>
-    <row r="16" spans="1:30" s="3" customFormat="1">
-      <c r="B16" s="16">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:30" s="4" customFormat="1" ht="18">
+      <c r="B16" s="17">
         <f>B9+TIME(0,C9,0)</f>
         <v>0.79861111111111105</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="16">
         <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="J16" s="19"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="20"/>
-    </row>
-    <row r="17" spans="2:13" s="3" customFormat="1">
-      <c r="B17" s="16"/>
-      <c r="C17" s="15"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="2:13" s="4" customFormat="1" ht="18">
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="33"/>
+        <v>36</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="23"/>
       <c r="K17" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="20"/>
-    </row>
-    <row r="18" spans="2:13" s="3" customFormat="1">
-      <c r="B18" s="16"/>
-      <c r="C18" s="15"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="2:13" s="4" customFormat="1" ht="18">
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="1">
         <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="33"/>
+        <v>36</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="23"/>
       <c r="K18" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="L18" s="1"/>
-      <c r="M18" s="20"/>
-    </row>
-    <row r="19" spans="2:13" s="3" customFormat="1">
-      <c r="B19" s="16"/>
-      <c r="C19" s="15"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="2:13" s="4" customFormat="1" ht="18">
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="1">
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="33"/>
+        <v>36</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="23"/>
       <c r="K19" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="L19" s="1"/>
-      <c r="M19" s="20"/>
-    </row>
-    <row r="20" spans="2:13" s="3" customFormat="1">
-      <c r="B20" s="16"/>
-      <c r="C20" s="15"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="2:13" s="4" customFormat="1" ht="18">
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="1">
         <v>4</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="33"/>
+        <v>36</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="23"/>
       <c r="K20" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="L20" s="1"/>
-      <c r="M20" s="20"/>
-    </row>
-    <row r="21" spans="2:13" s="3" customFormat="1">
-      <c r="B21" s="16"/>
-      <c r="C21" s="15"/>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="2:13" s="4" customFormat="1" ht="18">
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="1">
         <v>5</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="33"/>
+        <v>36</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="23"/>
       <c r="K21" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="L21" s="1"/>
-      <c r="M21" s="20"/>
-    </row>
-    <row r="22" spans="2:13" s="3" customFormat="1">
-      <c r="B22" s="16"/>
-      <c r="C22" s="15"/>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="2:13" s="4" customFormat="1" ht="18">
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="20"/>
-    </row>
-    <row r="23" spans="2:13" s="3" customFormat="1">
-      <c r="B23" s="16"/>
-      <c r="C23" s="15"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="2:13" s="4" customFormat="1">
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="20"/>
-    </row>
-    <row r="24" spans="2:13" s="3" customFormat="1">
-      <c r="B24" s="16">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="2:13" s="4" customFormat="1" ht="18">
+      <c r="B24" s="17">
         <f>B16+TIME(0,C16,0)</f>
         <v>0.81249999999999989</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="16">
         <v>35</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="20"/>
-    </row>
-    <row r="25" spans="2:13" s="3" customFormat="1">
-      <c r="B25" s="16"/>
-      <c r="C25" s="15"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="2:13" s="4" customFormat="1" ht="18">
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="1">
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="20"/>
-    </row>
-    <row r="26" spans="2:13" s="3" customFormat="1">
-      <c r="B26" s="16"/>
-      <c r="C26" s="15"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="2:13" s="4" customFormat="1" ht="18">
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J26" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="J26" s="19"/>
       <c r="K26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L26" s="1"/>
-      <c r="M26" s="20"/>
-    </row>
-    <row r="27" spans="2:13" s="3" customFormat="1">
-      <c r="B27" s="16"/>
-      <c r="C27" s="15"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="2:13" s="4" customFormat="1" ht="18">
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="1">
         <v>2</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="20"/>
-    </row>
-    <row r="28" spans="2:13" s="3" customFormat="1">
-      <c r="B28" s="16"/>
-      <c r="C28" s="15"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="2:13" s="4" customFormat="1" ht="18">
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J28" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="J28" s="19"/>
       <c r="K28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L28" s="1"/>
-      <c r="M28" s="20"/>
-    </row>
-    <row r="29" spans="2:13" s="3" customFormat="1">
-      <c r="B29" s="16"/>
-      <c r="C29" s="15"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="2:13" s="4" customFormat="1" ht="18">
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="1">
         <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="20"/>
-    </row>
-    <row r="30" spans="2:13" s="3" customFormat="1">
-      <c r="B30" s="16"/>
-      <c r="C30" s="15"/>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="2:13" s="4" customFormat="1" ht="18">
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J30" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="J30" s="19"/>
       <c r="K30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L30" s="1"/>
-      <c r="M30" s="20"/>
-    </row>
-    <row r="31" spans="2:13" s="3" customFormat="1">
-      <c r="B31" s="16"/>
-      <c r="C31" s="15"/>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="2:13" s="4" customFormat="1" ht="18">
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="1">
         <v>4</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="20"/>
-    </row>
-    <row r="32" spans="2:13" s="3" customFormat="1">
-      <c r="B32" s="16"/>
-      <c r="C32" s="15"/>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="2:13" s="4" customFormat="1" ht="18">
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
       <c r="K32" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="L32" s="1"/>
-      <c r="M32" s="20"/>
-    </row>
-    <row r="33" spans="2:13" s="3" customFormat="1">
-      <c r="B33" s="16"/>
-      <c r="C33" s="15"/>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" s="4" customFormat="1" ht="18">
+      <c r="B33" s="17"/>
+      <c r="C33" s="18"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="20"/>
-    </row>
-    <row r="34" spans="2:13" s="3" customFormat="1" ht="5" customHeight="1">
-      <c r="B34" s="16"/>
-      <c r="C34" s="15"/>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" s="4" customFormat="1" ht="5" customHeight="1">
+      <c r="B34" s="17"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="20"/>
-    </row>
-    <row r="35" spans="2:13" s="3" customFormat="1">
-      <c r="B35" s="16">
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" s="4" customFormat="1" ht="18">
+      <c r="B35" s="17">
         <f>B24+TIME(0,C24,0)</f>
         <v>0.83680555555555547</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="16">
         <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="20"/>
-    </row>
-    <row r="36" spans="2:13" s="3" customFormat="1" ht="5" customHeight="1">
-      <c r="B36" s="16"/>
-      <c r="C36" s="19"/>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="36" spans="2:13" s="4" customFormat="1" ht="5" customHeight="1">
+      <c r="B36" s="17"/>
+      <c r="C36" s="16"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="20"/>
-    </row>
-    <row r="37" spans="2:13" s="3" customFormat="1">
-      <c r="B37" s="16">
+      <c r="M36" s="3"/>
+    </row>
+    <row r="37" spans="2:13" s="4" customFormat="1" ht="18">
+      <c r="B37" s="17">
         <f>B35+TIME(0,C35,0)</f>
         <v>0.84027777777777768</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="16">
         <v>25</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J37" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="J37" s="19"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="20"/>
-    </row>
-    <row r="38" spans="2:13" s="3" customFormat="1">
-      <c r="B38" s="16"/>
-      <c r="C38" s="15"/>
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="2:13" s="4" customFormat="1" ht="18">
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="1">
         <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J38" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="J38" s="19"/>
       <c r="K38" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="L38" s="1"/>
-      <c r="M38" s="20"/>
-    </row>
-    <row r="39" spans="2:13" s="3" customFormat="1">
-      <c r="B39" s="16"/>
-      <c r="C39" s="15"/>
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="2:13" s="4" customFormat="1" ht="18">
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
       <c r="D39" s="1">
         <v>2</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" s="19"/>
+      <c r="K39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J39" s="9"/>
-      <c r="K39" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="L39" s="1"/>
-      <c r="M39" s="20"/>
-    </row>
-    <row r="40" spans="2:13" s="3" customFormat="1">
-      <c r="B40" s="16"/>
-      <c r="C40" s="15"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" s="4" customFormat="1" ht="18">
+      <c r="B40" s="17"/>
+      <c r="C40" s="18"/>
       <c r="D40" s="1">
         <v>3</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J40" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="J40" s="19"/>
       <c r="K40" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="L40" s="1"/>
-      <c r="M40" s="20"/>
-    </row>
-    <row r="41" spans="2:13" s="3" customFormat="1">
-      <c r="B41" s="16"/>
-      <c r="C41" s="15"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" s="4" customFormat="1" ht="18">
+      <c r="B41" s="17"/>
+      <c r="C41" s="18"/>
       <c r="D41" s="1">
         <v>4</v>
       </c>
@@ -1617,921 +2339,921 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="9"/>
+      <c r="J41" s="19"/>
       <c r="K41" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="L41" s="1"/>
-      <c r="M41" s="20"/>
-    </row>
-    <row r="42" spans="2:13" s="3" customFormat="1">
-      <c r="B42" s="16"/>
-      <c r="C42" s="15"/>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" s="4" customFormat="1" ht="18">
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="9"/>
+      <c r="J42" s="19"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="20"/>
-    </row>
-    <row r="43" spans="2:13" s="3" customFormat="1">
-      <c r="B43" s="16"/>
-      <c r="C43" s="15">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" s="4" customFormat="1" ht="18">
+      <c r="B43" s="17"/>
+      <c r="C43" s="18">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J43" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="J43" s="19"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="20"/>
-    </row>
-    <row r="44" spans="2:13" s="3" customFormat="1">
-      <c r="B44" s="16"/>
-      <c r="C44" s="15">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" s="4" customFormat="1" ht="18">
+      <c r="B44" s="17"/>
+      <c r="C44" s="18">
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J44" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="J44" s="19"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="20"/>
-    </row>
-    <row r="45" spans="2:13" s="3" customFormat="1">
-      <c r="B45" s="16"/>
-      <c r="C45" s="15">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" s="4" customFormat="1" ht="18">
+      <c r="B45" s="17"/>
+      <c r="C45" s="18">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J45" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="J45" s="19"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="20"/>
-    </row>
-    <row r="46" spans="2:13" s="3" customFormat="1">
-      <c r="B46" s="16"/>
-      <c r="C46" s="15"/>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" s="4" customFormat="1">
+      <c r="B46" s="17"/>
+      <c r="C46" s="18"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="26" t="s">
-        <v>42</v>
+      <c r="I46" s="19"/>
+      <c r="J46" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="20"/>
-    </row>
-    <row r="47" spans="2:13" s="3" customFormat="1">
-      <c r="B47" s="16">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" s="4" customFormat="1" ht="18">
+      <c r="B47" s="17">
         <f>B37+TIME(0,C37,0)</f>
         <v>0.85763888888888884</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="16">
         <v>5</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="20"/>
-    </row>
-    <row r="48" spans="2:13" s="3" customFormat="1">
-      <c r="B48" s="16">
+      <c r="I47" s="19"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" s="4" customFormat="1" ht="18">
+      <c r="B48" s="17">
         <f>B47+TIME(0,C47,0)</f>
         <v>0.86111111111111105</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="16">
         <v>10</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="20"/>
-    </row>
-    <row r="49" spans="1:13" s="3" customFormat="1">
-      <c r="B49" s="16">
+      <c r="I48" s="19"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="1:13" s="4" customFormat="1" ht="18">
+      <c r="B49" s="17">
         <f>B48+TIME(0,C48,0)</f>
         <v>0.86805555555555547</v>
       </c>
-      <c r="C49" s="15"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="20"/>
-    </row>
-    <row r="50" spans="1:13" s="3" customFormat="1">
-      <c r="B50" s="16"/>
-      <c r="C50" s="15"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="1:13" s="4" customFormat="1">
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="29" t="s">
-        <v>47</v>
+      <c r="E50" s="27" t="s">
+        <v>19</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="20"/>
-    </row>
-    <row r="51" spans="1:13" s="3" customFormat="1">
-      <c r="B51" s="16"/>
-      <c r="C51" s="15"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="1:13" s="4" customFormat="1">
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="29" t="s">
-        <v>48</v>
+      <c r="E51" s="27" t="s">
+        <v>20</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="20"/>
-    </row>
-    <row r="52" spans="1:13" s="3" customFormat="1">
-      <c r="A52" s="21"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="20"/>
-    </row>
-    <row r="53" spans="1:13" s="3" customFormat="1">
-      <c r="B53" s="16"/>
-      <c r="C53" s="15"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="1:13" s="4" customFormat="1">
+      <c r="A52" s="28"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="1:13" s="4" customFormat="1">
+      <c r="B53" s="17"/>
+      <c r="C53" s="18"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="2"/>
-    </row>
-    <row r="54" spans="1:13" s="3" customFormat="1">
-      <c r="B54" s="16"/>
-      <c r="C54" s="15"/>
+      <c r="M53" s="33"/>
+    </row>
+    <row r="54" spans="1:13" s="4" customFormat="1">
+      <c r="B54" s="17"/>
+      <c r="C54" s="18"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
-      <c r="M54" s="2"/>
-    </row>
-    <row r="55" spans="1:13" s="3" customFormat="1">
-      <c r="B55" s="16"/>
-      <c r="C55" s="15"/>
+      <c r="M54" s="33"/>
+    </row>
+    <row r="55" spans="1:13" s="4" customFormat="1">
+      <c r="B55" s="17"/>
+      <c r="C55" s="18"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
-      <c r="M55" s="2"/>
-    </row>
-    <row r="56" spans="1:13" s="3" customFormat="1">
-      <c r="B56" s="16"/>
-      <c r="C56" s="15"/>
+      <c r="M55" s="33"/>
+    </row>
+    <row r="56" spans="1:13" s="4" customFormat="1">
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
-      <c r="M56" s="2"/>
-    </row>
-    <row r="57" spans="1:13" s="3" customFormat="1">
-      <c r="B57" s="16"/>
-      <c r="C57" s="15"/>
+      <c r="M56" s="33"/>
+    </row>
+    <row r="57" spans="1:13" s="4" customFormat="1">
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
-      <c r="M57" s="2"/>
-    </row>
-    <row r="58" spans="1:13" s="3" customFormat="1">
-      <c r="B58" s="16"/>
-      <c r="C58" s="15"/>
+      <c r="M57" s="33"/>
+    </row>
+    <row r="58" spans="1:13" s="4" customFormat="1">
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
-      <c r="M58" s="2"/>
-    </row>
-    <row r="59" spans="1:13" s="3" customFormat="1">
-      <c r="B59" s="16"/>
-      <c r="C59" s="15"/>
+      <c r="M58" s="33"/>
+    </row>
+    <row r="59" spans="1:13" s="4" customFormat="1">
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="2"/>
-    </row>
-    <row r="60" spans="1:13" s="3" customFormat="1">
-      <c r="B60" s="16"/>
-      <c r="C60" s="15"/>
+      <c r="M59" s="33"/>
+    </row>
+    <row r="60" spans="1:13" s="4" customFormat="1">
+      <c r="B60" s="17"/>
+      <c r="C60" s="18"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
-      <c r="M60" s="2"/>
-    </row>
-    <row r="61" spans="1:13" s="3" customFormat="1">
-      <c r="B61" s="16"/>
-      <c r="C61" s="15"/>
+      <c r="M60" s="33"/>
+    </row>
+    <row r="61" spans="1:13" s="4" customFormat="1">
+      <c r="B61" s="17"/>
+      <c r="C61" s="18"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
-      <c r="M61" s="2"/>
-    </row>
-    <row r="62" spans="1:13" s="3" customFormat="1">
-      <c r="B62" s="16"/>
-      <c r="C62" s="15"/>
+      <c r="M61" s="33"/>
+    </row>
+    <row r="62" spans="1:13" s="4" customFormat="1">
+      <c r="B62" s="17"/>
+      <c r="C62" s="18"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
-      <c r="M62" s="2"/>
-    </row>
-    <row r="63" spans="1:13" s="3" customFormat="1">
-      <c r="B63" s="16"/>
-      <c r="C63" s="15"/>
+      <c r="M62" s="33"/>
+    </row>
+    <row r="63" spans="1:13" s="4" customFormat="1">
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
-      <c r="M63" s="2"/>
-    </row>
-    <row r="64" spans="1:13" s="3" customFormat="1">
-      <c r="B64" s="16"/>
-      <c r="C64" s="15"/>
+      <c r="M63" s="33"/>
+    </row>
+    <row r="64" spans="1:13" s="4" customFormat="1">
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
-      <c r="M64" s="2"/>
-    </row>
-    <row r="65" spans="2:13" s="3" customFormat="1">
-      <c r="B65" s="16"/>
-      <c r="C65" s="15"/>
+      <c r="M64" s="33"/>
+    </row>
+    <row r="65" spans="2:13" s="4" customFormat="1">
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
-      <c r="M65" s="2"/>
-    </row>
-    <row r="66" spans="2:13" s="3" customFormat="1">
-      <c r="B66" s="16"/>
-      <c r="C66" s="15"/>
+      <c r="M65" s="33"/>
+    </row>
+    <row r="66" spans="2:13" s="4" customFormat="1">
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
-      <c r="M66" s="2"/>
-    </row>
-    <row r="67" spans="2:13" s="3" customFormat="1">
-      <c r="B67" s="16"/>
-      <c r="C67" s="15"/>
+      <c r="M66" s="33"/>
+    </row>
+    <row r="67" spans="2:13" s="4" customFormat="1">
+      <c r="B67" s="17"/>
+      <c r="C67" s="18"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
-      <c r="M67" s="2"/>
-    </row>
-    <row r="68" spans="2:13" s="3" customFormat="1">
-      <c r="B68" s="16"/>
-      <c r="C68" s="15"/>
+      <c r="M67" s="33"/>
+    </row>
+    <row r="68" spans="2:13" s="4" customFormat="1">
+      <c r="B68" s="17"/>
+      <c r="C68" s="18"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
-      <c r="M68" s="2"/>
-    </row>
-    <row r="69" spans="2:13" s="3" customFormat="1">
-      <c r="B69" s="16"/>
-      <c r="C69" s="15"/>
+      <c r="M68" s="33"/>
+    </row>
+    <row r="69" spans="2:13" s="4" customFormat="1">
+      <c r="B69" s="17"/>
+      <c r="C69" s="18"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="2"/>
-    </row>
-    <row r="70" spans="2:13" s="3" customFormat="1">
-      <c r="B70" s="16"/>
-      <c r="C70" s="15"/>
+      <c r="M69" s="33"/>
+    </row>
+    <row r="70" spans="2:13" s="4" customFormat="1">
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="2"/>
-    </row>
-    <row r="71" spans="2:13" s="3" customFormat="1">
-      <c r="B71" s="16"/>
-      <c r="C71" s="15"/>
+      <c r="M70" s="33"/>
+    </row>
+    <row r="71" spans="2:13" s="4" customFormat="1">
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
-      <c r="M71" s="2"/>
-    </row>
-    <row r="72" spans="2:13" s="3" customFormat="1">
-      <c r="B72" s="16"/>
-      <c r="C72" s="15"/>
+      <c r="M71" s="33"/>
+    </row>
+    <row r="72" spans="2:13" s="4" customFormat="1">
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
-      <c r="M72" s="2"/>
-    </row>
-    <row r="73" spans="2:13" s="3" customFormat="1">
-      <c r="B73" s="16"/>
-      <c r="C73" s="15"/>
+      <c r="M72" s="33"/>
+    </row>
+    <row r="73" spans="2:13" s="4" customFormat="1">
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
-      <c r="M73" s="2"/>
-    </row>
-    <row r="74" spans="2:13" s="3" customFormat="1">
-      <c r="B74" s="16"/>
-      <c r="C74" s="15"/>
+      <c r="M73" s="33"/>
+    </row>
+    <row r="74" spans="2:13" s="4" customFormat="1">
+      <c r="B74" s="17"/>
+      <c r="C74" s="18"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
-      <c r="M74" s="2"/>
-    </row>
-    <row r="75" spans="2:13" s="3" customFormat="1">
-      <c r="B75" s="16"/>
-      <c r="C75" s="15"/>
+      <c r="M74" s="33"/>
+    </row>
+    <row r="75" spans="2:13" s="4" customFormat="1">
+      <c r="B75" s="17"/>
+      <c r="C75" s="18"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
-      <c r="M75" s="2"/>
-    </row>
-    <row r="76" spans="2:13" s="3" customFormat="1">
-      <c r="B76" s="16"/>
-      <c r="C76" s="15"/>
+      <c r="M75" s="33"/>
+    </row>
+    <row r="76" spans="2:13" s="4" customFormat="1">
+      <c r="B76" s="17"/>
+      <c r="C76" s="18"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
-      <c r="M76" s="2"/>
-    </row>
-    <row r="77" spans="2:13" s="3" customFormat="1">
-      <c r="B77" s="16"/>
-      <c r="C77" s="15"/>
+      <c r="M76" s="33"/>
+    </row>
+    <row r="77" spans="2:13" s="4" customFormat="1">
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
-      <c r="M77" s="2"/>
-    </row>
-    <row r="78" spans="2:13" s="3" customFormat="1">
-      <c r="B78" s="16"/>
-      <c r="C78" s="15"/>
+      <c r="M77" s="33"/>
+    </row>
+    <row r="78" spans="2:13" s="4" customFormat="1">
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="19"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="2"/>
-    </row>
-    <row r="79" spans="2:13" s="3" customFormat="1">
-      <c r="B79" s="16"/>
-      <c r="C79" s="15"/>
+      <c r="M78" s="33"/>
+    </row>
+    <row r="79" spans="2:13" s="4" customFormat="1">
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="19"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
-      <c r="M79" s="2"/>
-    </row>
-    <row r="80" spans="2:13" s="3" customFormat="1">
-      <c r="B80" s="16"/>
-      <c r="C80" s="15"/>
+      <c r="M79" s="33"/>
+    </row>
+    <row r="80" spans="2:13" s="4" customFormat="1">
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="19"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="2:13" s="3" customFormat="1">
-      <c r="B81" s="16"/>
-      <c r="C81" s="15"/>
+      <c r="M80" s="33"/>
+    </row>
+    <row r="81" spans="2:13" s="4" customFormat="1">
+      <c r="B81" s="17"/>
+      <c r="C81" s="18"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="9"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="19"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
-      <c r="M81" s="2"/>
-    </row>
-    <row r="82" spans="2:13" s="3" customFormat="1">
-      <c r="B82" s="16"/>
-      <c r="C82" s="15"/>
+      <c r="M81" s="33"/>
+    </row>
+    <row r="82" spans="2:13" s="4" customFormat="1">
+      <c r="B82" s="17"/>
+      <c r="C82" s="18"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="9"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="19"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
     </row>
-    <row r="83" spans="2:13" s="3" customFormat="1">
-      <c r="B83" s="16"/>
-      <c r="C83" s="15"/>
+    <row r="83" spans="2:13" s="4" customFormat="1">
+      <c r="B83" s="17"/>
+      <c r="C83" s="18"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
-      <c r="I83" s="9"/>
-      <c r="J83" s="9"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="19"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
     </row>
-    <row r="84" spans="2:13" s="3" customFormat="1">
-      <c r="B84" s="16"/>
-      <c r="C84" s="15"/>
+    <row r="84" spans="2:13" s="4" customFormat="1">
+      <c r="B84" s="17"/>
+      <c r="C84" s="18"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
-      <c r="I84" s="9"/>
-      <c r="J84" s="9"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="19"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
     </row>
-    <row r="85" spans="2:13" s="3" customFormat="1">
-      <c r="B85" s="16"/>
-      <c r="C85" s="15"/>
+    <row r="85" spans="2:13" s="4" customFormat="1">
+      <c r="B85" s="17"/>
+      <c r="C85" s="18"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="9"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="19"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
     </row>
-    <row r="86" spans="2:13" s="3" customFormat="1">
-      <c r="B86" s="16"/>
-      <c r="C86" s="15"/>
+    <row r="86" spans="2:13" s="4" customFormat="1">
+      <c r="B86" s="17"/>
+      <c r="C86" s="18"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
-      <c r="I86" s="9"/>
-      <c r="J86" s="9"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="19"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
     </row>
-    <row r="87" spans="2:13" s="3" customFormat="1">
-      <c r="B87" s="16"/>
-      <c r="C87" s="15"/>
+    <row r="87" spans="2:13" s="4" customFormat="1">
+      <c r="B87" s="17"/>
+      <c r="C87" s="18"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
-      <c r="I87" s="9"/>
-      <c r="J87" s="9"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="19"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
     </row>
-    <row r="88" spans="2:13" s="3" customFormat="1">
-      <c r="B88" s="16"/>
-      <c r="C88" s="15"/>
+    <row r="88" spans="2:13" s="4" customFormat="1">
+      <c r="B88" s="17"/>
+      <c r="C88" s="18"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
-      <c r="I88" s="9"/>
-      <c r="J88" s="9"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="19"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
     </row>
-    <row r="89" spans="2:13" s="3" customFormat="1">
-      <c r="B89" s="16"/>
-      <c r="C89" s="15"/>
+    <row r="89" spans="2:13" s="4" customFormat="1">
+      <c r="B89" s="17"/>
+      <c r="C89" s="18"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
-      <c r="I89" s="9"/>
-      <c r="J89" s="9"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="19"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
     </row>
-    <row r="90" spans="2:13" s="3" customFormat="1">
-      <c r="B90" s="16"/>
-      <c r="C90" s="15"/>
+    <row r="90" spans="2:13" s="4" customFormat="1">
+      <c r="B90" s="17"/>
+      <c r="C90" s="18"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
-      <c r="I90" s="9"/>
-      <c r="J90" s="9"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="19"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
     </row>
-    <row r="91" spans="2:13" s="3" customFormat="1">
-      <c r="B91" s="16"/>
-      <c r="C91" s="15"/>
+    <row r="91" spans="2:13" s="4" customFormat="1">
+      <c r="B91" s="17"/>
+      <c r="C91" s="18"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
-      <c r="I91" s="9"/>
-      <c r="J91" s="9"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="19"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
     </row>
-    <row r="92" spans="2:13" s="3" customFormat="1">
-      <c r="B92" s="16"/>
-      <c r="C92" s="15"/>
+    <row r="92" spans="2:13" s="4" customFormat="1">
+      <c r="B92" s="17"/>
+      <c r="C92" s="18"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
-      <c r="I92" s="9"/>
-      <c r="J92" s="9"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="19"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
     </row>
-    <row r="93" spans="2:13" s="3" customFormat="1">
-      <c r="B93" s="16"/>
-      <c r="C93" s="15"/>
+    <row r="93" spans="2:13" s="4" customFormat="1">
+      <c r="B93" s="17"/>
+      <c r="C93" s="18"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
-      <c r="I93" s="9"/>
-      <c r="J93" s="9"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="19"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
     </row>
-    <row r="94" spans="2:13" s="3" customFormat="1">
-      <c r="B94" s="16"/>
-      <c r="C94" s="15"/>
+    <row r="94" spans="2:13" s="4" customFormat="1">
+      <c r="B94" s="17"/>
+      <c r="C94" s="18"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
-      <c r="I94" s="9"/>
-      <c r="J94" s="9"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="19"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
     </row>
-    <row r="95" spans="2:13" s="3" customFormat="1">
-      <c r="B95" s="16"/>
-      <c r="C95" s="15"/>
+    <row r="95" spans="2:13" s="4" customFormat="1">
+      <c r="B95" s="17"/>
+      <c r="C95" s="18"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
-      <c r="I95" s="9"/>
-      <c r="J95" s="9"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="19"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
     </row>
-    <row r="96" spans="2:13" s="3" customFormat="1">
-      <c r="B96" s="16"/>
-      <c r="C96" s="15"/>
+    <row r="96" spans="2:13" s="4" customFormat="1">
+      <c r="B96" s="17"/>
+      <c r="C96" s="18"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
-      <c r="I96" s="9"/>
-      <c r="J96" s="9"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="19"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
     </row>
-    <row r="97" spans="2:12" s="3" customFormat="1">
-      <c r="B97" s="16"/>
-      <c r="C97" s="15"/>
+    <row r="97" spans="2:12" s="4" customFormat="1">
+      <c r="B97" s="17"/>
+      <c r="C97" s="18"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
-      <c r="I97" s="9"/>
-      <c r="J97" s="9"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="19"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
     </row>
-    <row r="98" spans="2:12" s="3" customFormat="1">
-      <c r="B98" s="16"/>
-      <c r="C98" s="15"/>
+    <row r="98" spans="2:12" s="4" customFormat="1">
+      <c r="B98" s="17"/>
+      <c r="C98" s="18"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
-      <c r="I98" s="9"/>
-      <c r="J98" s="9"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="19"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
     </row>
-    <row r="99" spans="2:12" s="3" customFormat="1">
-      <c r="B99" s="16"/>
-      <c r="C99" s="15"/>
+    <row r="99" spans="2:12" s="4" customFormat="1">
+      <c r="B99" s="17"/>
+      <c r="C99" s="18"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
-      <c r="I99" s="9"/>
-      <c r="J99" s="9"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="19"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
     </row>
-    <row r="100" spans="2:12" s="3" customFormat="1">
-      <c r="B100" s="16"/>
-      <c r="C100" s="15"/>
+    <row r="100" spans="2:12" s="4" customFormat="1">
+      <c r="B100" s="17"/>
+      <c r="C100" s="18"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
-      <c r="I100" s="9"/>
-      <c r="J100" s="9"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="19"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
     </row>
-    <row r="101" spans="2:12" s="3" customFormat="1">
-      <c r="B101" s="16"/>
-      <c r="C101" s="15"/>
+    <row r="101" spans="2:12" s="4" customFormat="1">
+      <c r="B101" s="17"/>
+      <c r="C101" s="18"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
-      <c r="I101" s="9"/>
-      <c r="J101" s="9"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="19"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
     </row>
-    <row r="102" spans="2:12" s="3" customFormat="1">
-      <c r="B102" s="16"/>
-      <c r="C102" s="15"/>
+    <row r="102" spans="2:12" s="4" customFormat="1">
+      <c r="B102" s="17"/>
+      <c r="C102" s="18"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
-      <c r="I102" s="9"/>
-      <c r="J102" s="9"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="19"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
     </row>
-    <row r="103" spans="2:12" s="3" customFormat="1">
-      <c r="B103" s="16"/>
-      <c r="C103" s="15"/>
+    <row r="103" spans="2:12" s="4" customFormat="1">
+      <c r="B103" s="17"/>
+      <c r="C103" s="18"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
-      <c r="I103" s="9"/>
-      <c r="J103" s="9"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="19"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
     </row>
-    <row r="104" spans="2:12" s="3" customFormat="1">
-      <c r="B104" s="16"/>
-      <c r="C104" s="15"/>
+    <row r="104" spans="2:12" s="4" customFormat="1">
+      <c r="B104" s="17"/>
+      <c r="C104" s="18"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
-      <c r="I104" s="9"/>
-      <c r="J104" s="9"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="19"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
     </row>
-    <row r="105" spans="2:12" s="3" customFormat="1">
-      <c r="B105" s="7"/>
-      <c r="C105" s="8"/>
+    <row r="105" spans="2:12" s="4" customFormat="1">
+      <c r="B105" s="34"/>
+      <c r="C105" s="22"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -2542,9 +3264,9 @@
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
     </row>
-    <row r="106" spans="2:12" s="3" customFormat="1">
-      <c r="B106" s="7"/>
-      <c r="C106" s="8"/>
+    <row r="106" spans="2:12" s="4" customFormat="1">
+      <c r="B106" s="34"/>
+      <c r="C106" s="22"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -2555,9 +3277,9 @@
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
     </row>
-    <row r="107" spans="2:12" s="3" customFormat="1">
-      <c r="B107" s="7"/>
-      <c r="C107" s="8"/>
+    <row r="107" spans="2:12" s="4" customFormat="1">
+      <c r="B107" s="34"/>
+      <c r="C107" s="22"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -2568,9 +3290,9 @@
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
     </row>
-    <row r="108" spans="2:12" s="3" customFormat="1">
-      <c r="B108" s="7"/>
-      <c r="C108" s="8"/>
+    <row r="108" spans="2:12" s="4" customFormat="1">
+      <c r="B108" s="34"/>
+      <c r="C108" s="22"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -2581,9 +3303,9 @@
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
     </row>
-    <row r="109" spans="2:12" s="3" customFormat="1">
-      <c r="B109" s="7"/>
-      <c r="C109" s="8"/>
+    <row r="109" spans="2:12" s="4" customFormat="1">
+      <c r="B109" s="34"/>
+      <c r="C109" s="22"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -2594,9 +3316,9 @@
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
     </row>
-    <row r="110" spans="2:12" s="3" customFormat="1">
-      <c r="B110" s="7"/>
-      <c r="C110" s="8"/>
+    <row r="110" spans="2:12" s="4" customFormat="1">
+      <c r="B110" s="34"/>
+      <c r="C110" s="22"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -2607,9 +3329,9 @@
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
     </row>
-    <row r="111" spans="2:12" s="3" customFormat="1">
-      <c r="B111" s="7"/>
-      <c r="C111" s="8"/>
+    <row r="111" spans="2:12" s="4" customFormat="1">
+      <c r="B111" s="34"/>
+      <c r="C111" s="22"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -2620,9 +3342,9 @@
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
     </row>
-    <row r="112" spans="2:12" s="3" customFormat="1">
-      <c r="B112" s="7"/>
-      <c r="C112" s="8"/>
+    <row r="112" spans="2:12" s="4" customFormat="1">
+      <c r="B112" s="34"/>
+      <c r="C112" s="22"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -2633,9 +3355,9 @@
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
     </row>
-    <row r="113" spans="2:12" s="3" customFormat="1">
-      <c r="B113" s="7"/>
-      <c r="C113" s="8"/>
+    <row r="113" spans="2:12" s="4" customFormat="1">
+      <c r="B113" s="34"/>
+      <c r="C113" s="22"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -2646,9 +3368,9 @@
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
     </row>
-    <row r="114" spans="2:12" s="3" customFormat="1">
-      <c r="B114" s="7"/>
-      <c r="C114" s="8"/>
+    <row r="114" spans="2:12" s="4" customFormat="1">
+      <c r="B114" s="34"/>
+      <c r="C114" s="22"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -2659,9 +3381,9 @@
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
     </row>
-    <row r="115" spans="2:12" s="3" customFormat="1">
-      <c r="B115" s="7"/>
-      <c r="C115" s="8"/>
+    <row r="115" spans="2:12" s="4" customFormat="1">
+      <c r="B115" s="34"/>
+      <c r="C115" s="22"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -2672,9 +3394,9 @@
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
     </row>
-    <row r="116" spans="2:12" s="3" customFormat="1">
-      <c r="B116" s="7"/>
-      <c r="C116" s="8"/>
+    <row r="116" spans="2:12" s="4" customFormat="1">
+      <c r="B116" s="34"/>
+      <c r="C116" s="22"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -2685,9 +3407,9 @@
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
     </row>
-    <row r="117" spans="2:12" s="3" customFormat="1">
-      <c r="B117" s="7"/>
-      <c r="C117" s="8"/>
+    <row r="117" spans="2:12" s="4" customFormat="1">
+      <c r="B117" s="34"/>
+      <c r="C117" s="22"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -2698,9 +3420,9 @@
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
     </row>
-    <row r="118" spans="2:12" s="3" customFormat="1">
-      <c r="B118" s="7"/>
-      <c r="C118" s="8"/>
+    <row r="118" spans="2:12" s="4" customFormat="1">
+      <c r="B118" s="34"/>
+      <c r="C118" s="22"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -2712,348 +3434,348 @@
       <c r="L118" s="1"/>
     </row>
     <row r="119" spans="2:12">
-      <c r="B119" s="7"/>
-      <c r="C119" s="8"/>
+      <c r="B119" s="34"/>
+      <c r="C119" s="22"/>
     </row>
     <row r="120" spans="2:12">
-      <c r="B120" s="7"/>
-      <c r="C120" s="8"/>
+      <c r="B120" s="34"/>
+      <c r="C120" s="22"/>
     </row>
     <row r="121" spans="2:12">
-      <c r="B121" s="7"/>
-      <c r="C121" s="8"/>
+      <c r="B121" s="34"/>
+      <c r="C121" s="22"/>
     </row>
     <row r="122" spans="2:12">
-      <c r="B122" s="7"/>
-      <c r="C122" s="8"/>
+      <c r="B122" s="34"/>
+      <c r="C122" s="22"/>
     </row>
     <row r="123" spans="2:12">
-      <c r="B123" s="7"/>
-      <c r="C123" s="8"/>
+      <c r="B123" s="34"/>
+      <c r="C123" s="22"/>
     </row>
     <row r="124" spans="2:12">
-      <c r="B124" s="7"/>
-      <c r="C124" s="8"/>
+      <c r="B124" s="34"/>
+      <c r="C124" s="22"/>
     </row>
     <row r="125" spans="2:12">
-      <c r="B125" s="7"/>
-      <c r="C125" s="8"/>
+      <c r="B125" s="34"/>
+      <c r="C125" s="22"/>
     </row>
     <row r="126" spans="2:12">
-      <c r="B126" s="7"/>
-      <c r="C126" s="8"/>
+      <c r="B126" s="34"/>
+      <c r="C126" s="22"/>
     </row>
     <row r="127" spans="2:12">
-      <c r="B127" s="7"/>
-      <c r="C127" s="8"/>
+      <c r="B127" s="34"/>
+      <c r="C127" s="22"/>
     </row>
     <row r="128" spans="2:12">
-      <c r="B128" s="7"/>
-      <c r="C128" s="8"/>
+      <c r="B128" s="34"/>
+      <c r="C128" s="22"/>
     </row>
     <row r="129" spans="2:3">
-      <c r="B129" s="7"/>
-      <c r="C129" s="8"/>
+      <c r="B129" s="34"/>
+      <c r="C129" s="22"/>
     </row>
     <row r="130" spans="2:3">
-      <c r="B130" s="7"/>
-      <c r="C130" s="8"/>
+      <c r="B130" s="34"/>
+      <c r="C130" s="22"/>
     </row>
     <row r="131" spans="2:3">
-      <c r="B131" s="7"/>
-      <c r="C131" s="8"/>
+      <c r="B131" s="34"/>
+      <c r="C131" s="22"/>
     </row>
     <row r="132" spans="2:3">
-      <c r="B132" s="7"/>
-      <c r="C132" s="8"/>
+      <c r="B132" s="34"/>
+      <c r="C132" s="22"/>
     </row>
     <row r="133" spans="2:3">
-      <c r="B133" s="7"/>
-      <c r="C133" s="8"/>
+      <c r="B133" s="34"/>
+      <c r="C133" s="22"/>
     </row>
     <row r="134" spans="2:3">
-      <c r="B134" s="7"/>
-      <c r="C134" s="8"/>
+      <c r="B134" s="34"/>
+      <c r="C134" s="22"/>
     </row>
     <row r="135" spans="2:3">
-      <c r="B135" s="7"/>
-      <c r="C135" s="8"/>
+      <c r="B135" s="34"/>
+      <c r="C135" s="22"/>
     </row>
     <row r="136" spans="2:3">
-      <c r="B136" s="7"/>
-      <c r="C136" s="8"/>
+      <c r="B136" s="34"/>
+      <c r="C136" s="22"/>
     </row>
     <row r="137" spans="2:3">
-      <c r="B137" s="7"/>
-      <c r="C137" s="8"/>
+      <c r="B137" s="34"/>
+      <c r="C137" s="22"/>
     </row>
     <row r="138" spans="2:3">
-      <c r="B138" s="7"/>
-      <c r="C138" s="8"/>
+      <c r="B138" s="34"/>
+      <c r="C138" s="22"/>
     </row>
     <row r="139" spans="2:3">
-      <c r="B139" s="7"/>
-      <c r="C139" s="8"/>
+      <c r="B139" s="34"/>
+      <c r="C139" s="22"/>
     </row>
     <row r="140" spans="2:3">
-      <c r="B140" s="7"/>
-      <c r="C140" s="8"/>
+      <c r="B140" s="34"/>
+      <c r="C140" s="22"/>
     </row>
     <row r="141" spans="2:3">
-      <c r="B141" s="7"/>
-      <c r="C141" s="8"/>
+      <c r="B141" s="34"/>
+      <c r="C141" s="22"/>
     </row>
     <row r="142" spans="2:3">
-      <c r="B142" s="7"/>
-      <c r="C142" s="8"/>
+      <c r="B142" s="34"/>
+      <c r="C142" s="22"/>
     </row>
     <row r="143" spans="2:3">
-      <c r="B143" s="7"/>
-      <c r="C143" s="8"/>
+      <c r="B143" s="34"/>
+      <c r="C143" s="22"/>
     </row>
     <row r="144" spans="2:3">
-      <c r="B144" s="7"/>
-      <c r="C144" s="8"/>
+      <c r="B144" s="34"/>
+      <c r="C144" s="22"/>
     </row>
     <row r="145" spans="2:3">
-      <c r="B145" s="7"/>
-      <c r="C145" s="8"/>
+      <c r="B145" s="34"/>
+      <c r="C145" s="22"/>
     </row>
     <row r="146" spans="2:3">
-      <c r="B146" s="7"/>
-      <c r="C146" s="8"/>
+      <c r="B146" s="34"/>
+      <c r="C146" s="22"/>
     </row>
     <row r="147" spans="2:3">
-      <c r="B147" s="7"/>
-      <c r="C147" s="8"/>
+      <c r="B147" s="34"/>
+      <c r="C147" s="22"/>
     </row>
     <row r="148" spans="2:3">
-      <c r="B148" s="7"/>
-      <c r="C148" s="8"/>
+      <c r="B148" s="34"/>
+      <c r="C148" s="22"/>
     </row>
     <row r="149" spans="2:3">
-      <c r="B149" s="7"/>
-      <c r="C149" s="8"/>
+      <c r="B149" s="34"/>
+      <c r="C149" s="22"/>
     </row>
     <row r="150" spans="2:3">
-      <c r="B150" s="7"/>
-      <c r="C150" s="8"/>
+      <c r="B150" s="34"/>
+      <c r="C150" s="22"/>
     </row>
     <row r="151" spans="2:3">
-      <c r="B151" s="7"/>
-      <c r="C151" s="8"/>
+      <c r="B151" s="34"/>
+      <c r="C151" s="22"/>
     </row>
     <row r="152" spans="2:3">
-      <c r="B152" s="7"/>
-      <c r="C152" s="8"/>
+      <c r="B152" s="34"/>
+      <c r="C152" s="22"/>
     </row>
     <row r="153" spans="2:3">
-      <c r="B153" s="7"/>
-      <c r="C153" s="8"/>
+      <c r="B153" s="34"/>
+      <c r="C153" s="22"/>
     </row>
     <row r="154" spans="2:3">
-      <c r="B154" s="7"/>
-      <c r="C154" s="8"/>
+      <c r="B154" s="34"/>
+      <c r="C154" s="22"/>
     </row>
     <row r="155" spans="2:3">
-      <c r="B155" s="7"/>
-      <c r="C155" s="8"/>
+      <c r="B155" s="34"/>
+      <c r="C155" s="22"/>
     </row>
     <row r="156" spans="2:3">
-      <c r="B156" s="7"/>
-      <c r="C156" s="8"/>
+      <c r="B156" s="34"/>
+      <c r="C156" s="22"/>
     </row>
     <row r="157" spans="2:3">
-      <c r="B157" s="7"/>
-      <c r="C157" s="8"/>
+      <c r="B157" s="34"/>
+      <c r="C157" s="22"/>
     </row>
     <row r="158" spans="2:3">
-      <c r="B158" s="7"/>
-      <c r="C158" s="8"/>
+      <c r="B158" s="34"/>
+      <c r="C158" s="22"/>
     </row>
     <row r="159" spans="2:3">
-      <c r="B159" s="7"/>
-      <c r="C159" s="8"/>
+      <c r="B159" s="34"/>
+      <c r="C159" s="22"/>
     </row>
     <row r="160" spans="2:3">
-      <c r="B160" s="7"/>
-      <c r="C160" s="8"/>
+      <c r="B160" s="34"/>
+      <c r="C160" s="22"/>
     </row>
     <row r="161" spans="2:3">
-      <c r="B161" s="7"/>
-      <c r="C161" s="8"/>
+      <c r="B161" s="34"/>
+      <c r="C161" s="22"/>
     </row>
     <row r="162" spans="2:3">
-      <c r="B162" s="7"/>
-      <c r="C162" s="8"/>
+      <c r="B162" s="34"/>
+      <c r="C162" s="22"/>
     </row>
     <row r="163" spans="2:3">
-      <c r="B163" s="7"/>
-      <c r="C163" s="8"/>
+      <c r="B163" s="34"/>
+      <c r="C163" s="22"/>
     </row>
     <row r="164" spans="2:3">
-      <c r="B164" s="7"/>
-      <c r="C164" s="8"/>
+      <c r="B164" s="34"/>
+      <c r="C164" s="22"/>
     </row>
     <row r="165" spans="2:3">
-      <c r="B165" s="7"/>
-      <c r="C165" s="8"/>
+      <c r="B165" s="34"/>
+      <c r="C165" s="22"/>
     </row>
     <row r="166" spans="2:3">
-      <c r="B166" s="7"/>
-      <c r="C166" s="8"/>
+      <c r="B166" s="34"/>
+      <c r="C166" s="22"/>
     </row>
     <row r="167" spans="2:3">
-      <c r="B167" s="7"/>
-      <c r="C167" s="8"/>
+      <c r="B167" s="34"/>
+      <c r="C167" s="22"/>
     </row>
     <row r="168" spans="2:3">
-      <c r="B168" s="7"/>
-      <c r="C168" s="8"/>
+      <c r="B168" s="34"/>
+      <c r="C168" s="22"/>
     </row>
     <row r="169" spans="2:3">
-      <c r="B169" s="7"/>
-      <c r="C169" s="8"/>
+      <c r="B169" s="34"/>
+      <c r="C169" s="22"/>
     </row>
     <row r="170" spans="2:3">
-      <c r="B170" s="7"/>
-      <c r="C170" s="8"/>
+      <c r="B170" s="34"/>
+      <c r="C170" s="22"/>
     </row>
     <row r="171" spans="2:3">
-      <c r="B171" s="7"/>
-      <c r="C171" s="8"/>
+      <c r="B171" s="34"/>
+      <c r="C171" s="22"/>
     </row>
     <row r="172" spans="2:3">
-      <c r="B172" s="7"/>
-      <c r="C172" s="8"/>
+      <c r="B172" s="34"/>
+      <c r="C172" s="22"/>
     </row>
     <row r="173" spans="2:3">
-      <c r="B173" s="7"/>
-      <c r="C173" s="8"/>
+      <c r="B173" s="34"/>
+      <c r="C173" s="22"/>
     </row>
     <row r="174" spans="2:3">
-      <c r="B174" s="7"/>
-      <c r="C174" s="8"/>
+      <c r="B174" s="34"/>
+      <c r="C174" s="22"/>
     </row>
     <row r="175" spans="2:3">
-      <c r="B175" s="7"/>
-      <c r="C175" s="8"/>
+      <c r="B175" s="34"/>
+      <c r="C175" s="22"/>
     </row>
     <row r="176" spans="2:3">
-      <c r="B176" s="7"/>
-      <c r="C176" s="8"/>
+      <c r="B176" s="34"/>
+      <c r="C176" s="22"/>
     </row>
     <row r="177" spans="2:3">
-      <c r="B177" s="7"/>
-      <c r="C177" s="8"/>
+      <c r="B177" s="34"/>
+      <c r="C177" s="22"/>
     </row>
     <row r="178" spans="2:3">
-      <c r="B178" s="7"/>
-      <c r="C178" s="8"/>
+      <c r="B178" s="34"/>
+      <c r="C178" s="22"/>
     </row>
     <row r="179" spans="2:3">
-      <c r="B179" s="7"/>
-      <c r="C179" s="8"/>
+      <c r="B179" s="34"/>
+      <c r="C179" s="22"/>
     </row>
     <row r="180" spans="2:3">
-      <c r="B180" s="7"/>
-      <c r="C180" s="8"/>
+      <c r="B180" s="34"/>
+      <c r="C180" s="22"/>
     </row>
     <row r="181" spans="2:3">
-      <c r="B181" s="7"/>
-      <c r="C181" s="8"/>
+      <c r="B181" s="34"/>
+      <c r="C181" s="22"/>
     </row>
     <row r="182" spans="2:3">
-      <c r="B182" s="7"/>
-      <c r="C182" s="8"/>
+      <c r="B182" s="34"/>
+      <c r="C182" s="22"/>
     </row>
     <row r="183" spans="2:3">
-      <c r="B183" s="7"/>
-      <c r="C183" s="8"/>
+      <c r="B183" s="34"/>
+      <c r="C183" s="22"/>
     </row>
     <row r="184" spans="2:3">
-      <c r="B184" s="7"/>
-      <c r="C184" s="8"/>
+      <c r="B184" s="34"/>
+      <c r="C184" s="22"/>
     </row>
     <row r="185" spans="2:3">
-      <c r="B185" s="7"/>
-      <c r="C185" s="8"/>
+      <c r="B185" s="34"/>
+      <c r="C185" s="22"/>
     </row>
     <row r="186" spans="2:3">
-      <c r="B186" s="7"/>
-      <c r="C186" s="8"/>
+      <c r="B186" s="34"/>
+      <c r="C186" s="22"/>
     </row>
     <row r="187" spans="2:3">
-      <c r="B187" s="7"/>
-      <c r="C187" s="8"/>
+      <c r="B187" s="34"/>
+      <c r="C187" s="22"/>
     </row>
     <row r="188" spans="2:3">
-      <c r="B188" s="7"/>
-      <c r="C188" s="8"/>
+      <c r="B188" s="34"/>
+      <c r="C188" s="22"/>
     </row>
     <row r="189" spans="2:3">
-      <c r="B189" s="7"/>
-      <c r="C189" s="8"/>
+      <c r="B189" s="34"/>
+      <c r="C189" s="22"/>
     </row>
     <row r="190" spans="2:3">
-      <c r="B190" s="7"/>
-      <c r="C190" s="8"/>
+      <c r="B190" s="34"/>
+      <c r="C190" s="22"/>
     </row>
     <row r="191" spans="2:3">
-      <c r="B191" s="7"/>
-      <c r="C191" s="8"/>
+      <c r="B191" s="34"/>
+      <c r="C191" s="22"/>
     </row>
     <row r="192" spans="2:3">
-      <c r="B192" s="7"/>
-      <c r="C192" s="8"/>
+      <c r="B192" s="34"/>
+      <c r="C192" s="22"/>
     </row>
     <row r="193" spans="2:3">
-      <c r="B193" s="7"/>
-      <c r="C193" s="8"/>
+      <c r="B193" s="34"/>
+      <c r="C193" s="22"/>
     </row>
     <row r="194" spans="2:3">
-      <c r="B194" s="7"/>
-      <c r="C194" s="8"/>
+      <c r="B194" s="34"/>
+      <c r="C194" s="22"/>
     </row>
     <row r="195" spans="2:3">
-      <c r="B195" s="7"/>
-      <c r="C195" s="8"/>
+      <c r="B195" s="34"/>
+      <c r="C195" s="22"/>
     </row>
     <row r="196" spans="2:3">
-      <c r="B196" s="7"/>
-      <c r="C196" s="8"/>
+      <c r="B196" s="34"/>
+      <c r="C196" s="22"/>
     </row>
     <row r="197" spans="2:3">
-      <c r="B197" s="7"/>
-      <c r="C197" s="8"/>
+      <c r="B197" s="34"/>
+      <c r="C197" s="22"/>
     </row>
     <row r="198" spans="2:3">
-      <c r="B198" s="7"/>
-      <c r="C198" s="8"/>
+      <c r="B198" s="34"/>
+      <c r="C198" s="22"/>
     </row>
     <row r="199" spans="2:3">
-      <c r="B199" s="7"/>
-      <c r="C199" s="8"/>
+      <c r="B199" s="34"/>
+      <c r="C199" s="22"/>
     </row>
     <row r="200" spans="2:3">
-      <c r="B200" s="7"/>
-      <c r="C200" s="8"/>
+      <c r="B200" s="34"/>
+      <c r="C200" s="22"/>
     </row>
     <row r="201" spans="2:3">
-      <c r="B201" s="7"/>
-      <c r="C201" s="8"/>
+      <c r="B201" s="34"/>
+      <c r="C201" s="22"/>
     </row>
     <row r="202" spans="2:3">
-      <c r="B202" s="7"/>
-      <c r="C202" s="8"/>
+      <c r="B202" s="34"/>
+      <c r="C202" s="22"/>
     </row>
     <row r="203" spans="2:3">
-      <c r="B203" s="7"/>
-      <c r="C203" s="8"/>
+      <c r="B203" s="34"/>
+      <c r="C203" s="22"/>
     </row>
     <row r="204" spans="2:3">
-      <c r="B204" s="7"/>
-      <c r="C204" s="8"/>
+      <c r="B204" s="34"/>
+      <c r="C204" s="22"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -3065,7 +3787,10 @@
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I21:J21"/>
   </mergeCells>
-  <phoneticPr fontId="6"/>
+  <phoneticPr fontId="3"/>
+  <hyperlinks>
+    <hyperlink ref="L5" r:id="rId1" xr:uid="{6BF2365C-9716-DA40-8EB6-CB17432E3590}"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.11811023622047249" bottom="0.15748031496062989" header="0.11811023622047249" footer="0.11811023622047249"/>
   <pageSetup paperSize="9" scale="62" orientation="portrait"/>

--- a/meeting_agenda_template.xlsx
+++ b/meeting_agenda_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10711"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jojuohara/Documents/書類 - JOJUのMacBook Air/python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53DEB1A-12FC-CA45-8A43-2623367AD217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{DD58C4DB-FBD7-174B-880E-595E98949FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="6680" windowWidth="21180" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Agenda!$A$1:$L$51</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -916,8 +916,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="&quot;（&quot;General&quot;分）&quot;"/>
-    <numFmt numFmtId="177" formatCode="&quot;（&quot;General&quot;min）&quot;"/>
+    <numFmt numFmtId="164" formatCode="&quot;（&quot;General&quot;分）&quot;"/>
+    <numFmt numFmtId="165" formatCode="&quot;（&quot;General&quot;min）&quot;"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -1122,29 +1122,26 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="20" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1164,7 +1161,7 @@
     <xf numFmtId="20" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1185,10 +1182,13 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -1496,30 +1496,30 @@
   <dimension ref="A1:AD204"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.99609375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="3.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="2" style="1" customWidth="1"/>
-    <col min="11" max="11" width="3.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="2.1640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="3" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="5.83203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9" style="1"/>
-    <col min="19" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="2.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.2265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.453125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.76953125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="2.04296875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="3.6796875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.54296875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="2.1796875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.54296875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="2.99609375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.453125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="5.86328125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.99609375" style="1"/>
+    <col min="19" max="16384" width="8.99609375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
@@ -1585,7 +1585,7 @@
       <c r="E3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="11"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
@@ -1621,16 +1621,16 @@
       <c r="B5" s="13"/>
       <c r="C5" s="14"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="35" t="s">
         <v>55</v>
       </c>
       <c r="J5" s="12"/>
-      <c r="L5" s="35" t="s">
+      <c r="L5" s="34" t="s">
         <v>23</v>
       </c>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:30" s="4" customFormat="1" ht="18">
+    <row r="6" spans="1:30" s="4" customFormat="1">
       <c r="B6" s="15" t="s">
         <v>0</v>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:30" s="4" customFormat="1" ht="18">
+    <row r="7" spans="1:30" s="4" customFormat="1">
       <c r="B7" s="17"/>
       <c r="C7" s="18"/>
       <c r="D7" s="1" t="s">
@@ -1671,7 +1671,7 @@
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
     </row>
-    <row r="8" spans="1:30" s="4" customFormat="1" ht="16">
+    <row r="8" spans="1:30" s="4" customFormat="1">
       <c r="B8" s="17"/>
       <c r="C8" s="18"/>
       <c r="D8" s="1"/>
@@ -1690,7 +1690,7 @@
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
     </row>
-    <row r="9" spans="1:30" s="4" customFormat="1" ht="18">
+    <row r="9" spans="1:30" s="4" customFormat="1">
       <c r="B9" s="17">
         <f>B6+TIME(0,C6,0)</f>
         <v>0.79513888888888884</v>
@@ -1713,7 +1713,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:30" s="4" customFormat="1" ht="18">
+    <row r="10" spans="1:30" s="4" customFormat="1">
       <c r="B10" s="17"/>
       <c r="C10" s="18">
         <v>1</v>
@@ -1734,7 +1734,7 @@
       <c r="M10" s="3"/>
       <c r="N10" s="22"/>
     </row>
-    <row r="11" spans="1:30" s="4" customFormat="1" ht="18">
+    <row r="11" spans="1:30" s="4" customFormat="1">
       <c r="B11" s="17"/>
       <c r="C11" s="18">
         <v>1</v>
@@ -1754,7 +1754,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:30" s="4" customFormat="1" ht="18">
+    <row r="12" spans="1:30" s="4" customFormat="1">
       <c r="B12" s="17"/>
       <c r="C12" s="18">
         <v>1</v>
@@ -1774,7 +1774,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:30" s="4" customFormat="1" ht="18">
+    <row r="13" spans="1:30" s="4" customFormat="1">
       <c r="B13" s="17"/>
       <c r="C13" s="18">
         <v>1</v>
@@ -1794,7 +1794,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:30" s="4" customFormat="1" ht="18">
+    <row r="14" spans="1:30" s="4" customFormat="1">
       <c r="B14" s="17"/>
       <c r="C14" s="18">
         <v>1</v>
@@ -1828,7 +1828,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:30" s="4" customFormat="1" ht="18">
+    <row r="16" spans="1:30" s="4" customFormat="1">
       <c r="B16" s="17">
         <f>B9+TIME(0,C9,0)</f>
         <v>0.79861111111111105</v>
@@ -1851,7 +1851,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="2:13" s="4" customFormat="1" ht="18">
+    <row r="17" spans="2:13" s="4" customFormat="1">
       <c r="B17" s="17"/>
       <c r="C17" s="18"/>
       <c r="D17" s="1">
@@ -1865,17 +1865,17 @@
       <c r="H17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="23"/>
+      <c r="J17" s="36"/>
       <c r="K17" s="1" t="s">
         <v>38</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="2:13" s="4" customFormat="1" ht="18">
+    <row r="18" spans="2:13" s="4" customFormat="1">
       <c r="B18" s="17"/>
       <c r="C18" s="18"/>
       <c r="D18" s="1">
@@ -1889,17 +1889,17 @@
       <c r="H18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="23" t="s">
+      <c r="I18" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="23"/>
+      <c r="J18" s="36"/>
       <c r="K18" s="1" t="s">
         <v>38</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="2:13" s="4" customFormat="1" ht="18">
+    <row r="19" spans="2:13" s="4" customFormat="1">
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
       <c r="D19" s="1">
@@ -1913,17 +1913,17 @@
       <c r="H19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="23" t="s">
+      <c r="I19" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="J19" s="23"/>
+      <c r="J19" s="36"/>
       <c r="K19" s="1" t="s">
         <v>38</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="2:13" s="4" customFormat="1" ht="18">
+    <row r="20" spans="2:13" s="4" customFormat="1">
       <c r="B20" s="17"/>
       <c r="C20" s="18"/>
       <c r="D20" s="1">
@@ -1937,17 +1937,17 @@
       <c r="H20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="23" t="s">
+      <c r="I20" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="J20" s="23"/>
+      <c r="J20" s="36"/>
       <c r="K20" s="1" t="s">
         <v>38</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="2:13" s="4" customFormat="1" ht="18">
+    <row r="21" spans="2:13" s="4" customFormat="1">
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
       <c r="D21" s="1">
@@ -1961,17 +1961,17 @@
       <c r="H21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="I21" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="J21" s="23"/>
+      <c r="J21" s="36"/>
       <c r="K21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="2:13" s="4" customFormat="1" ht="18">
+    <row r="22" spans="2:13" s="4" customFormat="1">
       <c r="B22" s="17"/>
       <c r="C22" s="18"/>
       <c r="D22" s="1"/>
@@ -2001,7 +2001,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="2:13" s="4" customFormat="1" ht="18">
+    <row r="24" spans="2:13" s="4" customFormat="1">
       <c r="B24" s="17">
         <f>B16+TIME(0,C16,0)</f>
         <v>0.81249999999999989</v>
@@ -2024,7 +2024,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="2:13" s="4" customFormat="1" ht="18">
+    <row r="25" spans="2:13" s="4" customFormat="1">
       <c r="B25" s="17"/>
       <c r="C25" s="18"/>
       <c r="D25" s="1">
@@ -2044,7 +2044,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="2:13" s="4" customFormat="1" ht="18">
+    <row r="26" spans="2:13" s="4" customFormat="1">
       <c r="B26" s="17"/>
       <c r="C26" s="18"/>
       <c r="D26" s="1"/>
@@ -2062,7 +2062,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="2:13" s="4" customFormat="1" ht="18">
+    <row r="27" spans="2:13" s="4" customFormat="1">
       <c r="B27" s="17"/>
       <c r="C27" s="18"/>
       <c r="D27" s="1">
@@ -2082,7 +2082,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="2:13" s="4" customFormat="1" ht="18">
+    <row r="28" spans="2:13" s="4" customFormat="1">
       <c r="B28" s="17"/>
       <c r="C28" s="18"/>
       <c r="D28" s="1"/>
@@ -2100,7 +2100,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="2:13" s="4" customFormat="1" ht="18">
+    <row r="29" spans="2:13" s="4" customFormat="1">
       <c r="B29" s="17"/>
       <c r="C29" s="18"/>
       <c r="D29" s="1">
@@ -2120,7 +2120,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="2:13" s="4" customFormat="1" ht="18">
+    <row r="30" spans="2:13" s="4" customFormat="1">
       <c r="B30" s="17"/>
       <c r="C30" s="18"/>
       <c r="D30" s="1"/>
@@ -2138,7 +2138,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="2:13" s="4" customFormat="1" ht="18">
+    <row r="31" spans="2:13" s="4" customFormat="1">
       <c r="B31" s="17"/>
       <c r="C31" s="18"/>
       <c r="D31" s="1">
@@ -2158,7 +2158,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="2:13" s="4" customFormat="1" ht="18">
+    <row r="32" spans="2:13" s="4" customFormat="1">
       <c r="B32" s="17"/>
       <c r="C32" s="18"/>
       <c r="D32" s="1"/>
@@ -2174,7 +2174,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="2:13" s="4" customFormat="1" ht="18">
+    <row r="33" spans="2:13" s="4" customFormat="1">
       <c r="B33" s="17"/>
       <c r="C33" s="18"/>
       <c r="D33" s="1"/>
@@ -2190,7 +2190,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="2:13" s="4" customFormat="1" ht="5" customHeight="1">
+    <row r="34" spans="2:13" s="4" customFormat="1" ht="5.0999999999999996" customHeight="1">
       <c r="B34" s="17"/>
       <c r="C34" s="18"/>
       <c r="D34" s="1"/>
@@ -2204,7 +2204,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="2:13" s="4" customFormat="1" ht="18">
+    <row r="35" spans="2:13" s="4" customFormat="1">
       <c r="B35" s="17">
         <f>B24+TIME(0,C24,0)</f>
         <v>0.83680555555555547</v>
@@ -2219,13 +2219,13 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="2:13" s="4" customFormat="1" ht="5" customHeight="1">
+    <row r="36" spans="2:13" s="4" customFormat="1" ht="5.0999999999999996" customHeight="1">
       <c r="B36" s="17"/>
       <c r="C36" s="16"/>
       <c r="D36" s="1"/>
@@ -2239,7 +2239,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="2:13" s="4" customFormat="1" ht="18">
+    <row r="37" spans="2:13" s="4" customFormat="1">
       <c r="B37" s="17">
         <f>B35+TIME(0,C35,0)</f>
         <v>0.84027777777777768</v>
@@ -2262,7 +2262,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="2:13" s="4" customFormat="1" ht="18">
+    <row r="38" spans="2:13" s="4" customFormat="1">
       <c r="B38" s="17"/>
       <c r="C38" s="18"/>
       <c r="D38" s="1">
@@ -2284,7 +2284,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="2:13" s="4" customFormat="1" ht="18">
+    <row r="39" spans="2:13" s="4" customFormat="1">
       <c r="B39" s="17"/>
       <c r="C39" s="18"/>
       <c r="D39" s="1">
@@ -2306,7 +2306,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="2:13" s="4" customFormat="1" ht="18">
+    <row r="40" spans="2:13" s="4" customFormat="1">
       <c r="B40" s="17"/>
       <c r="C40" s="18"/>
       <c r="D40" s="1">
@@ -2328,7 +2328,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="2:13" s="4" customFormat="1" ht="18">
+    <row r="41" spans="2:13" s="4" customFormat="1">
       <c r="B41" s="17"/>
       <c r="C41" s="18"/>
       <c r="D41" s="1">
@@ -2346,7 +2346,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="2:13" s="4" customFormat="1" ht="18">
+    <row r="42" spans="2:13" s="4" customFormat="1">
       <c r="B42" s="17"/>
       <c r="C42" s="18"/>
       <c r="D42" s="1"/>
@@ -2362,7 +2362,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" spans="2:13" s="4" customFormat="1" ht="18">
+    <row r="43" spans="2:13" s="4" customFormat="1">
       <c r="B43" s="17"/>
       <c r="C43" s="18">
         <v>1</v>
@@ -2382,7 +2382,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="2:13" s="4" customFormat="1" ht="18">
+    <row r="44" spans="2:13" s="4" customFormat="1">
       <c r="B44" s="17"/>
       <c r="C44" s="18">
         <v>1</v>
@@ -2402,7 +2402,7 @@
       <c r="L44" s="1"/>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="2:13" s="4" customFormat="1" ht="18">
+    <row r="45" spans="2:13" s="4" customFormat="1">
       <c r="B45" s="17"/>
       <c r="C45" s="18">
         <v>1</v>
@@ -2431,14 +2431,14 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="19"/>
-      <c r="J46" s="24" t="s">
+      <c r="J46" s="23" t="s">
         <v>17</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="2:13" s="4" customFormat="1" ht="18">
+    <row r="47" spans="2:13" s="4" customFormat="1">
       <c r="B47" s="17">
         <f>B37+TIME(0,C37,0)</f>
         <v>0.85763888888888884</v>
@@ -2454,12 +2454,12 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="19"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="26"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="25"/>
       <c r="M47" s="3"/>
     </row>
-    <row r="48" spans="2:13" s="4" customFormat="1" ht="18">
+    <row r="48" spans="2:13" s="4" customFormat="1">
       <c r="B48" s="17">
         <f>B47+TIME(0,C47,0)</f>
         <v>0.86111111111111105</v>
@@ -2475,12 +2475,12 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="19"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="26"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="25"/>
       <c r="M48" s="3"/>
     </row>
-    <row r="49" spans="1:13" s="4" customFormat="1" ht="18">
+    <row r="49" spans="1:13" s="4" customFormat="1">
       <c r="B49" s="17">
         <f>B48+TIME(0,C48,0)</f>
         <v>0.86805555555555547</v>
@@ -2494,56 +2494,56 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="19"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="26"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="25"/>
       <c r="M49" s="3"/>
     </row>
     <row r="50" spans="1:13" s="4" customFormat="1">
       <c r="B50" s="17"/>
       <c r="C50" s="18"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="27" t="s">
+      <c r="E50" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="19"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="26"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="25"/>
       <c r="M50" s="3"/>
     </row>
     <row r="51" spans="1:13" s="4" customFormat="1">
       <c r="B51" s="17"/>
       <c r="C51" s="18"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="27" t="s">
+      <c r="E51" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="19"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="26"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="25"/>
       <c r="M51" s="3"/>
     </row>
     <row r="52" spans="1:13" s="4" customFormat="1">
-      <c r="A52" s="28"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="31"/>
-      <c r="L52" s="31"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
       <c r="M52" s="3"/>
     </row>
     <row r="53" spans="1:13" s="4" customFormat="1">
@@ -2558,7 +2558,7 @@
       <c r="J53" s="19"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="33"/>
+      <c r="M53" s="32"/>
     </row>
     <row r="54" spans="1:13" s="4" customFormat="1">
       <c r="B54" s="17"/>
@@ -2572,7 +2572,7 @@
       <c r="J54" s="19"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
-      <c r="M54" s="33"/>
+      <c r="M54" s="32"/>
     </row>
     <row r="55" spans="1:13" s="4" customFormat="1">
       <c r="B55" s="17"/>
@@ -2586,7 +2586,7 @@
       <c r="J55" s="19"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
-      <c r="M55" s="33"/>
+      <c r="M55" s="32"/>
     </row>
     <row r="56" spans="1:13" s="4" customFormat="1">
       <c r="B56" s="17"/>
@@ -2600,7 +2600,7 @@
       <c r="J56" s="19"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
-      <c r="M56" s="33"/>
+      <c r="M56" s="32"/>
     </row>
     <row r="57" spans="1:13" s="4" customFormat="1">
       <c r="B57" s="17"/>
@@ -2614,7 +2614,7 @@
       <c r="J57" s="19"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
-      <c r="M57" s="33"/>
+      <c r="M57" s="32"/>
     </row>
     <row r="58" spans="1:13" s="4" customFormat="1">
       <c r="B58" s="17"/>
@@ -2628,7 +2628,7 @@
       <c r="J58" s="19"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
-      <c r="M58" s="33"/>
+      <c r="M58" s="32"/>
     </row>
     <row r="59" spans="1:13" s="4" customFormat="1">
       <c r="B59" s="17"/>
@@ -2642,7 +2642,7 @@
       <c r="J59" s="19"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="33"/>
+      <c r="M59" s="32"/>
     </row>
     <row r="60" spans="1:13" s="4" customFormat="1">
       <c r="B60" s="17"/>
@@ -2656,7 +2656,7 @@
       <c r="J60" s="19"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
-      <c r="M60" s="33"/>
+      <c r="M60" s="32"/>
     </row>
     <row r="61" spans="1:13" s="4" customFormat="1">
       <c r="B61" s="17"/>
@@ -2670,7 +2670,7 @@
       <c r="J61" s="19"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
-      <c r="M61" s="33"/>
+      <c r="M61" s="32"/>
     </row>
     <row r="62" spans="1:13" s="4" customFormat="1">
       <c r="B62" s="17"/>
@@ -2684,7 +2684,7 @@
       <c r="J62" s="19"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
-      <c r="M62" s="33"/>
+      <c r="M62" s="32"/>
     </row>
     <row r="63" spans="1:13" s="4" customFormat="1">
       <c r="B63" s="17"/>
@@ -2698,7 +2698,7 @@
       <c r="J63" s="19"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
-      <c r="M63" s="33"/>
+      <c r="M63" s="32"/>
     </row>
     <row r="64" spans="1:13" s="4" customFormat="1">
       <c r="B64" s="17"/>
@@ -2712,7 +2712,7 @@
       <c r="J64" s="19"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
-      <c r="M64" s="33"/>
+      <c r="M64" s="32"/>
     </row>
     <row r="65" spans="2:13" s="4" customFormat="1">
       <c r="B65" s="17"/>
@@ -2726,7 +2726,7 @@
       <c r="J65" s="19"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
-      <c r="M65" s="33"/>
+      <c r="M65" s="32"/>
     </row>
     <row r="66" spans="2:13" s="4" customFormat="1">
       <c r="B66" s="17"/>
@@ -2740,7 +2740,7 @@
       <c r="J66" s="19"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
-      <c r="M66" s="33"/>
+      <c r="M66" s="32"/>
     </row>
     <row r="67" spans="2:13" s="4" customFormat="1">
       <c r="B67" s="17"/>
@@ -2754,7 +2754,7 @@
       <c r="J67" s="19"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
-      <c r="M67" s="33"/>
+      <c r="M67" s="32"/>
     </row>
     <row r="68" spans="2:13" s="4" customFormat="1">
       <c r="B68" s="17"/>
@@ -2768,7 +2768,7 @@
       <c r="J68" s="19"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
-      <c r="M68" s="33"/>
+      <c r="M68" s="32"/>
     </row>
     <row r="69" spans="2:13" s="4" customFormat="1">
       <c r="B69" s="17"/>
@@ -2782,7 +2782,7 @@
       <c r="J69" s="19"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="33"/>
+      <c r="M69" s="32"/>
     </row>
     <row r="70" spans="2:13" s="4" customFormat="1">
       <c r="B70" s="17"/>
@@ -2796,7 +2796,7 @@
       <c r="J70" s="19"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="33"/>
+      <c r="M70" s="32"/>
     </row>
     <row r="71" spans="2:13" s="4" customFormat="1">
       <c r="B71" s="17"/>
@@ -2810,7 +2810,7 @@
       <c r="J71" s="19"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
-      <c r="M71" s="33"/>
+      <c r="M71" s="32"/>
     </row>
     <row r="72" spans="2:13" s="4" customFormat="1">
       <c r="B72" s="17"/>
@@ -2824,7 +2824,7 @@
       <c r="J72" s="19"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
-      <c r="M72" s="33"/>
+      <c r="M72" s="32"/>
     </row>
     <row r="73" spans="2:13" s="4" customFormat="1">
       <c r="B73" s="17"/>
@@ -2838,7 +2838,7 @@
       <c r="J73" s="19"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
-      <c r="M73" s="33"/>
+      <c r="M73" s="32"/>
     </row>
     <row r="74" spans="2:13" s="4" customFormat="1">
       <c r="B74" s="17"/>
@@ -2852,7 +2852,7 @@
       <c r="J74" s="19"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
-      <c r="M74" s="33"/>
+      <c r="M74" s="32"/>
     </row>
     <row r="75" spans="2:13" s="4" customFormat="1">
       <c r="B75" s="17"/>
@@ -2866,7 +2866,7 @@
       <c r="J75" s="19"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
-      <c r="M75" s="33"/>
+      <c r="M75" s="32"/>
     </row>
     <row r="76" spans="2:13" s="4" customFormat="1">
       <c r="B76" s="17"/>
@@ -2880,7 +2880,7 @@
       <c r="J76" s="19"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
-      <c r="M76" s="33"/>
+      <c r="M76" s="32"/>
     </row>
     <row r="77" spans="2:13" s="4" customFormat="1">
       <c r="B77" s="17"/>
@@ -2894,7 +2894,7 @@
       <c r="J77" s="19"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
-      <c r="M77" s="33"/>
+      <c r="M77" s="32"/>
     </row>
     <row r="78" spans="2:13" s="4" customFormat="1">
       <c r="B78" s="17"/>
@@ -2908,7 +2908,7 @@
       <c r="J78" s="19"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="33"/>
+      <c r="M78" s="32"/>
     </row>
     <row r="79" spans="2:13" s="4" customFormat="1">
       <c r="B79" s="17"/>
@@ -2922,7 +2922,7 @@
       <c r="J79" s="19"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
-      <c r="M79" s="33"/>
+      <c r="M79" s="32"/>
     </row>
     <row r="80" spans="2:13" s="4" customFormat="1">
       <c r="B80" s="17"/>
@@ -2936,7 +2936,7 @@
       <c r="J80" s="19"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
-      <c r="M80" s="33"/>
+      <c r="M80" s="32"/>
     </row>
     <row r="81" spans="2:13" s="4" customFormat="1">
       <c r="B81" s="17"/>
@@ -2950,7 +2950,7 @@
       <c r="J81" s="19"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
-      <c r="M81" s="33"/>
+      <c r="M81" s="32"/>
     </row>
     <row r="82" spans="2:13" s="4" customFormat="1">
       <c r="B82" s="17"/>
@@ -3252,7 +3252,7 @@
       <c r="L104" s="1"/>
     </row>
     <row r="105" spans="2:12" s="4" customFormat="1">
-      <c r="B105" s="34"/>
+      <c r="B105" s="33"/>
       <c r="C105" s="22"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -3265,7 +3265,7 @@
       <c r="L105" s="1"/>
     </row>
     <row r="106" spans="2:12" s="4" customFormat="1">
-      <c r="B106" s="34"/>
+      <c r="B106" s="33"/>
       <c r="C106" s="22"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -3278,7 +3278,7 @@
       <c r="L106" s="1"/>
     </row>
     <row r="107" spans="2:12" s="4" customFormat="1">
-      <c r="B107" s="34"/>
+      <c r="B107" s="33"/>
       <c r="C107" s="22"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -3291,7 +3291,7 @@
       <c r="L107" s="1"/>
     </row>
     <row r="108" spans="2:12" s="4" customFormat="1">
-      <c r="B108" s="34"/>
+      <c r="B108" s="33"/>
       <c r="C108" s="22"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -3304,7 +3304,7 @@
       <c r="L108" s="1"/>
     </row>
     <row r="109" spans="2:12" s="4" customFormat="1">
-      <c r="B109" s="34"/>
+      <c r="B109" s="33"/>
       <c r="C109" s="22"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -3317,7 +3317,7 @@
       <c r="L109" s="1"/>
     </row>
     <row r="110" spans="2:12" s="4" customFormat="1">
-      <c r="B110" s="34"/>
+      <c r="B110" s="33"/>
       <c r="C110" s="22"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -3330,7 +3330,7 @@
       <c r="L110" s="1"/>
     </row>
     <row r="111" spans="2:12" s="4" customFormat="1">
-      <c r="B111" s="34"/>
+      <c r="B111" s="33"/>
       <c r="C111" s="22"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -3343,7 +3343,7 @@
       <c r="L111" s="1"/>
     </row>
     <row r="112" spans="2:12" s="4" customFormat="1">
-      <c r="B112" s="34"/>
+      <c r="B112" s="33"/>
       <c r="C112" s="22"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -3356,7 +3356,7 @@
       <c r="L112" s="1"/>
     </row>
     <row r="113" spans="2:12" s="4" customFormat="1">
-      <c r="B113" s="34"/>
+      <c r="B113" s="33"/>
       <c r="C113" s="22"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -3369,7 +3369,7 @@
       <c r="L113" s="1"/>
     </row>
     <row r="114" spans="2:12" s="4" customFormat="1">
-      <c r="B114" s="34"/>
+      <c r="B114" s="33"/>
       <c r="C114" s="22"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -3382,7 +3382,7 @@
       <c r="L114" s="1"/>
     </row>
     <row r="115" spans="2:12" s="4" customFormat="1">
-      <c r="B115" s="34"/>
+      <c r="B115" s="33"/>
       <c r="C115" s="22"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -3395,7 +3395,7 @@
       <c r="L115" s="1"/>
     </row>
     <row r="116" spans="2:12" s="4" customFormat="1">
-      <c r="B116" s="34"/>
+      <c r="B116" s="33"/>
       <c r="C116" s="22"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -3408,7 +3408,7 @@
       <c r="L116" s="1"/>
     </row>
     <row r="117" spans="2:12" s="4" customFormat="1">
-      <c r="B117" s="34"/>
+      <c r="B117" s="33"/>
       <c r="C117" s="22"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -3421,7 +3421,7 @@
       <c r="L117" s="1"/>
     </row>
     <row r="118" spans="2:12" s="4" customFormat="1">
-      <c r="B118" s="34"/>
+      <c r="B118" s="33"/>
       <c r="C118" s="22"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -3434,347 +3434,347 @@
       <c r="L118" s="1"/>
     </row>
     <row r="119" spans="2:12">
-      <c r="B119" s="34"/>
+      <c r="B119" s="33"/>
       <c r="C119" s="22"/>
     </row>
     <row r="120" spans="2:12">
-      <c r="B120" s="34"/>
+      <c r="B120" s="33"/>
       <c r="C120" s="22"/>
     </row>
     <row r="121" spans="2:12">
-      <c r="B121" s="34"/>
+      <c r="B121" s="33"/>
       <c r="C121" s="22"/>
     </row>
     <row r="122" spans="2:12">
-      <c r="B122" s="34"/>
+      <c r="B122" s="33"/>
       <c r="C122" s="22"/>
     </row>
     <row r="123" spans="2:12">
-      <c r="B123" s="34"/>
+      <c r="B123" s="33"/>
       <c r="C123" s="22"/>
     </row>
     <row r="124" spans="2:12">
-      <c r="B124" s="34"/>
+      <c r="B124" s="33"/>
       <c r="C124" s="22"/>
     </row>
     <row r="125" spans="2:12">
-      <c r="B125" s="34"/>
+      <c r="B125" s="33"/>
       <c r="C125" s="22"/>
     </row>
     <row r="126" spans="2:12">
-      <c r="B126" s="34"/>
+      <c r="B126" s="33"/>
       <c r="C126" s="22"/>
     </row>
     <row r="127" spans="2:12">
-      <c r="B127" s="34"/>
+      <c r="B127" s="33"/>
       <c r="C127" s="22"/>
     </row>
     <row r="128" spans="2:12">
-      <c r="B128" s="34"/>
+      <c r="B128" s="33"/>
       <c r="C128" s="22"/>
     </row>
     <row r="129" spans="2:3">
-      <c r="B129" s="34"/>
+      <c r="B129" s="33"/>
       <c r="C129" s="22"/>
     </row>
     <row r="130" spans="2:3">
-      <c r="B130" s="34"/>
+      <c r="B130" s="33"/>
       <c r="C130" s="22"/>
     </row>
     <row r="131" spans="2:3">
-      <c r="B131" s="34"/>
+      <c r="B131" s="33"/>
       <c r="C131" s="22"/>
     </row>
     <row r="132" spans="2:3">
-      <c r="B132" s="34"/>
+      <c r="B132" s="33"/>
       <c r="C132" s="22"/>
     </row>
     <row r="133" spans="2:3">
-      <c r="B133" s="34"/>
+      <c r="B133" s="33"/>
       <c r="C133" s="22"/>
     </row>
     <row r="134" spans="2:3">
-      <c r="B134" s="34"/>
+      <c r="B134" s="33"/>
       <c r="C134" s="22"/>
     </row>
     <row r="135" spans="2:3">
-      <c r="B135" s="34"/>
+      <c r="B135" s="33"/>
       <c r="C135" s="22"/>
     </row>
     <row r="136" spans="2:3">
-      <c r="B136" s="34"/>
+      <c r="B136" s="33"/>
       <c r="C136" s="22"/>
     </row>
     <row r="137" spans="2:3">
-      <c r="B137" s="34"/>
+      <c r="B137" s="33"/>
       <c r="C137" s="22"/>
     </row>
     <row r="138" spans="2:3">
-      <c r="B138" s="34"/>
+      <c r="B138" s="33"/>
       <c r="C138" s="22"/>
     </row>
     <row r="139" spans="2:3">
-      <c r="B139" s="34"/>
+      <c r="B139" s="33"/>
       <c r="C139" s="22"/>
     </row>
     <row r="140" spans="2:3">
-      <c r="B140" s="34"/>
+      <c r="B140" s="33"/>
       <c r="C140" s="22"/>
     </row>
     <row r="141" spans="2:3">
-      <c r="B141" s="34"/>
+      <c r="B141" s="33"/>
       <c r="C141" s="22"/>
     </row>
     <row r="142" spans="2:3">
-      <c r="B142" s="34"/>
+      <c r="B142" s="33"/>
       <c r="C142" s="22"/>
     </row>
     <row r="143" spans="2:3">
-      <c r="B143" s="34"/>
+      <c r="B143" s="33"/>
       <c r="C143" s="22"/>
     </row>
     <row r="144" spans="2:3">
-      <c r="B144" s="34"/>
+      <c r="B144" s="33"/>
       <c r="C144" s="22"/>
     </row>
     <row r="145" spans="2:3">
-      <c r="B145" s="34"/>
+      <c r="B145" s="33"/>
       <c r="C145" s="22"/>
     </row>
     <row r="146" spans="2:3">
-      <c r="B146" s="34"/>
+      <c r="B146" s="33"/>
       <c r="C146" s="22"/>
     </row>
     <row r="147" spans="2:3">
-      <c r="B147" s="34"/>
+      <c r="B147" s="33"/>
       <c r="C147" s="22"/>
     </row>
     <row r="148" spans="2:3">
-      <c r="B148" s="34"/>
+      <c r="B148" s="33"/>
       <c r="C148" s="22"/>
     </row>
     <row r="149" spans="2:3">
-      <c r="B149" s="34"/>
+      <c r="B149" s="33"/>
       <c r="C149" s="22"/>
     </row>
     <row r="150" spans="2:3">
-      <c r="B150" s="34"/>
+      <c r="B150" s="33"/>
       <c r="C150" s="22"/>
     </row>
     <row r="151" spans="2:3">
-      <c r="B151" s="34"/>
+      <c r="B151" s="33"/>
       <c r="C151" s="22"/>
     </row>
     <row r="152" spans="2:3">
-      <c r="B152" s="34"/>
+      <c r="B152" s="33"/>
       <c r="C152" s="22"/>
     </row>
     <row r="153" spans="2:3">
-      <c r="B153" s="34"/>
+      <c r="B153" s="33"/>
       <c r="C153" s="22"/>
     </row>
     <row r="154" spans="2:3">
-      <c r="B154" s="34"/>
+      <c r="B154" s="33"/>
       <c r="C154" s="22"/>
     </row>
     <row r="155" spans="2:3">
-      <c r="B155" s="34"/>
+      <c r="B155" s="33"/>
       <c r="C155" s="22"/>
     </row>
     <row r="156" spans="2:3">
-      <c r="B156" s="34"/>
+      <c r="B156" s="33"/>
       <c r="C156" s="22"/>
     </row>
     <row r="157" spans="2:3">
-      <c r="B157" s="34"/>
+      <c r="B157" s="33"/>
       <c r="C157" s="22"/>
     </row>
     <row r="158" spans="2:3">
-      <c r="B158" s="34"/>
+      <c r="B158" s="33"/>
       <c r="C158" s="22"/>
     </row>
     <row r="159" spans="2:3">
-      <c r="B159" s="34"/>
+      <c r="B159" s="33"/>
       <c r="C159" s="22"/>
     </row>
     <row r="160" spans="2:3">
-      <c r="B160" s="34"/>
+      <c r="B160" s="33"/>
       <c r="C160" s="22"/>
     </row>
     <row r="161" spans="2:3">
-      <c r="B161" s="34"/>
+      <c r="B161" s="33"/>
       <c r="C161" s="22"/>
     </row>
     <row r="162" spans="2:3">
-      <c r="B162" s="34"/>
+      <c r="B162" s="33"/>
       <c r="C162" s="22"/>
     </row>
     <row r="163" spans="2:3">
-      <c r="B163" s="34"/>
+      <c r="B163" s="33"/>
       <c r="C163" s="22"/>
     </row>
     <row r="164" spans="2:3">
-      <c r="B164" s="34"/>
+      <c r="B164" s="33"/>
       <c r="C164" s="22"/>
     </row>
     <row r="165" spans="2:3">
-      <c r="B165" s="34"/>
+      <c r="B165" s="33"/>
       <c r="C165" s="22"/>
     </row>
     <row r="166" spans="2:3">
-      <c r="B166" s="34"/>
+      <c r="B166" s="33"/>
       <c r="C166" s="22"/>
     </row>
     <row r="167" spans="2:3">
-      <c r="B167" s="34"/>
+      <c r="B167" s="33"/>
       <c r="C167" s="22"/>
     </row>
     <row r="168" spans="2:3">
-      <c r="B168" s="34"/>
+      <c r="B168" s="33"/>
       <c r="C168" s="22"/>
     </row>
     <row r="169" spans="2:3">
-      <c r="B169" s="34"/>
+      <c r="B169" s="33"/>
       <c r="C169" s="22"/>
     </row>
     <row r="170" spans="2:3">
-      <c r="B170" s="34"/>
+      <c r="B170" s="33"/>
       <c r="C170" s="22"/>
     </row>
     <row r="171" spans="2:3">
-      <c r="B171" s="34"/>
+      <c r="B171" s="33"/>
       <c r="C171" s="22"/>
     </row>
     <row r="172" spans="2:3">
-      <c r="B172" s="34"/>
+      <c r="B172" s="33"/>
       <c r="C172" s="22"/>
     </row>
     <row r="173" spans="2:3">
-      <c r="B173" s="34"/>
+      <c r="B173" s="33"/>
       <c r="C173" s="22"/>
     </row>
     <row r="174" spans="2:3">
-      <c r="B174" s="34"/>
+      <c r="B174" s="33"/>
       <c r="C174" s="22"/>
     </row>
     <row r="175" spans="2:3">
-      <c r="B175" s="34"/>
+      <c r="B175" s="33"/>
       <c r="C175" s="22"/>
     </row>
     <row r="176" spans="2:3">
-      <c r="B176" s="34"/>
+      <c r="B176" s="33"/>
       <c r="C176" s="22"/>
     </row>
     <row r="177" spans="2:3">
-      <c r="B177" s="34"/>
+      <c r="B177" s="33"/>
       <c r="C177" s="22"/>
     </row>
     <row r="178" spans="2:3">
-      <c r="B178" s="34"/>
+      <c r="B178" s="33"/>
       <c r="C178" s="22"/>
     </row>
     <row r="179" spans="2:3">
-      <c r="B179" s="34"/>
+      <c r="B179" s="33"/>
       <c r="C179" s="22"/>
     </row>
     <row r="180" spans="2:3">
-      <c r="B180" s="34"/>
+      <c r="B180" s="33"/>
       <c r="C180" s="22"/>
     </row>
     <row r="181" spans="2:3">
-      <c r="B181" s="34"/>
+      <c r="B181" s="33"/>
       <c r="C181" s="22"/>
     </row>
     <row r="182" spans="2:3">
-      <c r="B182" s="34"/>
+      <c r="B182" s="33"/>
       <c r="C182" s="22"/>
     </row>
     <row r="183" spans="2:3">
-      <c r="B183" s="34"/>
+      <c r="B183" s="33"/>
       <c r="C183" s="22"/>
     </row>
     <row r="184" spans="2:3">
-      <c r="B184" s="34"/>
+      <c r="B184" s="33"/>
       <c r="C184" s="22"/>
     </row>
     <row r="185" spans="2:3">
-      <c r="B185" s="34"/>
+      <c r="B185" s="33"/>
       <c r="C185" s="22"/>
     </row>
     <row r="186" spans="2:3">
-      <c r="B186" s="34"/>
+      <c r="B186" s="33"/>
       <c r="C186" s="22"/>
     </row>
     <row r="187" spans="2:3">
-      <c r="B187" s="34"/>
+      <c r="B187" s="33"/>
       <c r="C187" s="22"/>
     </row>
     <row r="188" spans="2:3">
-      <c r="B188" s="34"/>
+      <c r="B188" s="33"/>
       <c r="C188" s="22"/>
     </row>
     <row r="189" spans="2:3">
-      <c r="B189" s="34"/>
+      <c r="B189" s="33"/>
       <c r="C189" s="22"/>
     </row>
     <row r="190" spans="2:3">
-      <c r="B190" s="34"/>
+      <c r="B190" s="33"/>
       <c r="C190" s="22"/>
     </row>
     <row r="191" spans="2:3">
-      <c r="B191" s="34"/>
+      <c r="B191" s="33"/>
       <c r="C191" s="22"/>
     </row>
     <row r="192" spans="2:3">
-      <c r="B192" s="34"/>
+      <c r="B192" s="33"/>
       <c r="C192" s="22"/>
     </row>
     <row r="193" spans="2:3">
-      <c r="B193" s="34"/>
+      <c r="B193" s="33"/>
       <c r="C193" s="22"/>
     </row>
     <row r="194" spans="2:3">
-      <c r="B194" s="34"/>
+      <c r="B194" s="33"/>
       <c r="C194" s="22"/>
     </row>
     <row r="195" spans="2:3">
-      <c r="B195" s="34"/>
+      <c r="B195" s="33"/>
       <c r="C195" s="22"/>
     </row>
     <row r="196" spans="2:3">
-      <c r="B196" s="34"/>
+      <c r="B196" s="33"/>
       <c r="C196" s="22"/>
     </row>
     <row r="197" spans="2:3">
-      <c r="B197" s="34"/>
+      <c r="B197" s="33"/>
       <c r="C197" s="22"/>
     </row>
     <row r="198" spans="2:3">
-      <c r="B198" s="34"/>
+      <c r="B198" s="33"/>
       <c r="C198" s="22"/>
     </row>
     <row r="199" spans="2:3">
-      <c r="B199" s="34"/>
+      <c r="B199" s="33"/>
       <c r="C199" s="22"/>
     </row>
     <row r="200" spans="2:3">
-      <c r="B200" s="34"/>
+      <c r="B200" s="33"/>
       <c r="C200" s="22"/>
     </row>
     <row r="201" spans="2:3">
-      <c r="B201" s="34"/>
+      <c r="B201" s="33"/>
       <c r="C201" s="22"/>
     </row>
     <row r="202" spans="2:3">
-      <c r="B202" s="34"/>
+      <c r="B202" s="33"/>
       <c r="C202" s="22"/>
     </row>
     <row r="203" spans="2:3">
-      <c r="B203" s="34"/>
+      <c r="B203" s="33"/>
       <c r="C203" s="22"/>
     </row>
     <row r="204" spans="2:3">
-      <c r="B204" s="34"/>
+      <c r="B204" s="33"/>
       <c r="C204" s="22"/>
     </row>
   </sheetData>

--- a/meeting_agenda_template.xlsx
+++ b/meeting_agenda_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10824"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jojuohara/Documents/書類 - JOJUのMacBook Air/python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jojuohara/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{DD58C4DB-FBD7-174B-880E-595E98949FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5ECECC9-3C20-9348-9F3F-40F0309B67CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="6680" windowWidth="21180" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
   <si>
     <t>19:00</t>
   </si>
@@ -905,10 +905,6 @@
       </rPr>
       <t>】</t>
     </r>
-  </si>
-  <si>
-    <t>Zoom Link:</t>
-    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -916,8 +912,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;（&quot;General&quot;分）&quot;"/>
-    <numFmt numFmtId="165" formatCode="&quot;（&quot;General&quot;min）&quot;"/>
+    <numFmt numFmtId="176" formatCode="&quot;（&quot;General&quot;分）&quot;"/>
+    <numFmt numFmtId="177" formatCode="&quot;（&quot;General&quot;min）&quot;"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -1122,25 +1118,25 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="20" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1161,7 +1157,7 @@
     <xf numFmtId="20" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1187,8 +1183,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -1496,30 +1492,30 @@
   <dimension ref="A1:AD204"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99609375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="3.54296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.2265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.453125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.76953125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="2.04296875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="3.6796875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.54296875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="2.1796875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.54296875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="2.99609375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.453125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="5.86328125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.99609375" style="1"/>
-    <col min="19" max="16384" width="8.99609375" style="5"/>
+    <col min="1" max="1" width="2.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="2" style="1" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="2.1640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="3" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="5.83203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="1"/>
+    <col min="19" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
@@ -1621,16 +1617,14 @@
       <c r="B5" s="13"/>
       <c r="C5" s="14"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="35" t="s">
-        <v>55</v>
-      </c>
+      <c r="E5" s="35"/>
       <c r="J5" s="12"/>
       <c r="L5" s="34" t="s">
         <v>23</v>
       </c>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:30" s="4" customFormat="1">
+    <row r="6" spans="1:30" s="4" customFormat="1" ht="18">
       <c r="B6" s="15" t="s">
         <v>0</v>
       </c>
@@ -1650,7 +1644,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:30" s="4" customFormat="1">
+    <row r="7" spans="1:30" s="4" customFormat="1" ht="18">
       <c r="B7" s="17"/>
       <c r="C7" s="18"/>
       <c r="D7" s="1" t="s">
@@ -1671,7 +1665,7 @@
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
     </row>
-    <row r="8" spans="1:30" s="4" customFormat="1">
+    <row r="8" spans="1:30" s="4" customFormat="1" ht="16">
       <c r="B8" s="17"/>
       <c r="C8" s="18"/>
       <c r="D8" s="1"/>
@@ -1690,7 +1684,7 @@
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
     </row>
-    <row r="9" spans="1:30" s="4" customFormat="1">
+    <row r="9" spans="1:30" s="4" customFormat="1" ht="18">
       <c r="B9" s="17">
         <f>B6+TIME(0,C6,0)</f>
         <v>0.79513888888888884</v>
@@ -1713,7 +1707,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:30" s="4" customFormat="1">
+    <row r="10" spans="1:30" s="4" customFormat="1" ht="18">
       <c r="B10" s="17"/>
       <c r="C10" s="18">
         <v>1</v>
@@ -1734,7 +1728,7 @@
       <c r="M10" s="3"/>
       <c r="N10" s="22"/>
     </row>
-    <row r="11" spans="1:30" s="4" customFormat="1">
+    <row r="11" spans="1:30" s="4" customFormat="1" ht="18">
       <c r="B11" s="17"/>
       <c r="C11" s="18">
         <v>1</v>
@@ -1754,7 +1748,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:30" s="4" customFormat="1">
+    <row r="12" spans="1:30" s="4" customFormat="1" ht="18">
       <c r="B12" s="17"/>
       <c r="C12" s="18">
         <v>1</v>
@@ -1774,7 +1768,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:30" s="4" customFormat="1">
+    <row r="13" spans="1:30" s="4" customFormat="1" ht="18">
       <c r="B13" s="17"/>
       <c r="C13" s="18">
         <v>1</v>
@@ -1794,7 +1788,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:30" s="4" customFormat="1">
+    <row r="14" spans="1:30" s="4" customFormat="1" ht="18">
       <c r="B14" s="17"/>
       <c r="C14" s="18">
         <v>1</v>
@@ -1828,7 +1822,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:30" s="4" customFormat="1">
+    <row r="16" spans="1:30" s="4" customFormat="1" ht="18">
       <c r="B16" s="17">
         <f>B9+TIME(0,C9,0)</f>
         <v>0.79861111111111105</v>
@@ -1851,7 +1845,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="2:13" s="4" customFormat="1">
+    <row r="17" spans="2:13" s="4" customFormat="1" ht="18">
       <c r="B17" s="17"/>
       <c r="C17" s="18"/>
       <c r="D17" s="1">
@@ -1875,7 +1869,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="2:13" s="4" customFormat="1">
+    <row r="18" spans="2:13" s="4" customFormat="1" ht="18">
       <c r="B18" s="17"/>
       <c r="C18" s="18"/>
       <c r="D18" s="1">
@@ -1899,7 +1893,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="2:13" s="4" customFormat="1">
+    <row r="19" spans="2:13" s="4" customFormat="1" ht="18">
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
       <c r="D19" s="1">
@@ -1923,7 +1917,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="2:13" s="4" customFormat="1">
+    <row r="20" spans="2:13" s="4" customFormat="1" ht="18">
       <c r="B20" s="17"/>
       <c r="C20" s="18"/>
       <c r="D20" s="1">
@@ -1947,7 +1941,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="2:13" s="4" customFormat="1">
+    <row r="21" spans="2:13" s="4" customFormat="1" ht="18">
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
       <c r="D21" s="1">
@@ -1971,7 +1965,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="2:13" s="4" customFormat="1">
+    <row r="22" spans="2:13" s="4" customFormat="1" ht="18">
       <c r="B22" s="17"/>
       <c r="C22" s="18"/>
       <c r="D22" s="1"/>
@@ -2001,7 +1995,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="2:13" s="4" customFormat="1">
+    <row r="24" spans="2:13" s="4" customFormat="1" ht="18">
       <c r="B24" s="17">
         <f>B16+TIME(0,C16,0)</f>
         <v>0.81249999999999989</v>
@@ -2024,7 +2018,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="2:13" s="4" customFormat="1">
+    <row r="25" spans="2:13" s="4" customFormat="1" ht="18">
       <c r="B25" s="17"/>
       <c r="C25" s="18"/>
       <c r="D25" s="1">
@@ -2044,7 +2038,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="2:13" s="4" customFormat="1">
+    <row r="26" spans="2:13" s="4" customFormat="1" ht="18">
       <c r="B26" s="17"/>
       <c r="C26" s="18"/>
       <c r="D26" s="1"/>
@@ -2062,7 +2056,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="2:13" s="4" customFormat="1">
+    <row r="27" spans="2:13" s="4" customFormat="1" ht="18">
       <c r="B27" s="17"/>
       <c r="C27" s="18"/>
       <c r="D27" s="1">
@@ -2082,7 +2076,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="2:13" s="4" customFormat="1">
+    <row r="28" spans="2:13" s="4" customFormat="1" ht="18">
       <c r="B28" s="17"/>
       <c r="C28" s="18"/>
       <c r="D28" s="1"/>
@@ -2100,7 +2094,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="2:13" s="4" customFormat="1">
+    <row r="29" spans="2:13" s="4" customFormat="1" ht="18">
       <c r="B29" s="17"/>
       <c r="C29" s="18"/>
       <c r="D29" s="1">
@@ -2120,7 +2114,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="2:13" s="4" customFormat="1">
+    <row r="30" spans="2:13" s="4" customFormat="1" ht="18">
       <c r="B30" s="17"/>
       <c r="C30" s="18"/>
       <c r="D30" s="1"/>
@@ -2138,7 +2132,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="2:13" s="4" customFormat="1">
+    <row r="31" spans="2:13" s="4" customFormat="1" ht="18">
       <c r="B31" s="17"/>
       <c r="C31" s="18"/>
       <c r="D31" s="1">
@@ -2158,7 +2152,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="2:13" s="4" customFormat="1">
+    <row r="32" spans="2:13" s="4" customFormat="1" ht="18">
       <c r="B32" s="17"/>
       <c r="C32" s="18"/>
       <c r="D32" s="1"/>
@@ -2174,7 +2168,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="2:13" s="4" customFormat="1">
+    <row r="33" spans="2:13" s="4" customFormat="1" ht="18">
       <c r="B33" s="17"/>
       <c r="C33" s="18"/>
       <c r="D33" s="1"/>
@@ -2190,7 +2184,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="2:13" s="4" customFormat="1" ht="5.0999999999999996" customHeight="1">
+    <row r="34" spans="2:13" s="4" customFormat="1" ht="5" customHeight="1">
       <c r="B34" s="17"/>
       <c r="C34" s="18"/>
       <c r="D34" s="1"/>
@@ -2204,7 +2198,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="2:13" s="4" customFormat="1">
+    <row r="35" spans="2:13" s="4" customFormat="1" ht="18">
       <c r="B35" s="17">
         <f>B24+TIME(0,C24,0)</f>
         <v>0.83680555555555547</v>
@@ -2225,7 +2219,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="2:13" s="4" customFormat="1" ht="5.0999999999999996" customHeight="1">
+    <row r="36" spans="2:13" s="4" customFormat="1" ht="5" customHeight="1">
       <c r="B36" s="17"/>
       <c r="C36" s="16"/>
       <c r="D36" s="1"/>
@@ -2239,7 +2233,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="2:13" s="4" customFormat="1">
+    <row r="37" spans="2:13" s="4" customFormat="1" ht="18">
       <c r="B37" s="17">
         <f>B35+TIME(0,C35,0)</f>
         <v>0.84027777777777768</v>
@@ -2262,7 +2256,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="2:13" s="4" customFormat="1">
+    <row r="38" spans="2:13" s="4" customFormat="1" ht="18">
       <c r="B38" s="17"/>
       <c r="C38" s="18"/>
       <c r="D38" s="1">
@@ -2284,7 +2278,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="2:13" s="4" customFormat="1">
+    <row r="39" spans="2:13" s="4" customFormat="1" ht="18">
       <c r="B39" s="17"/>
       <c r="C39" s="18"/>
       <c r="D39" s="1">
@@ -2306,7 +2300,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="2:13" s="4" customFormat="1">
+    <row r="40" spans="2:13" s="4" customFormat="1" ht="18">
       <c r="B40" s="17"/>
       <c r="C40" s="18"/>
       <c r="D40" s="1">
@@ -2328,7 +2322,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="2:13" s="4" customFormat="1">
+    <row r="41" spans="2:13" s="4" customFormat="1" ht="18">
       <c r="B41" s="17"/>
       <c r="C41" s="18"/>
       <c r="D41" s="1">
@@ -2346,7 +2340,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="2:13" s="4" customFormat="1">
+    <row r="42" spans="2:13" s="4" customFormat="1" ht="18">
       <c r="B42" s="17"/>
       <c r="C42" s="18"/>
       <c r="D42" s="1"/>
@@ -2362,7 +2356,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" spans="2:13" s="4" customFormat="1">
+    <row r="43" spans="2:13" s="4" customFormat="1" ht="18">
       <c r="B43" s="17"/>
       <c r="C43" s="18">
         <v>1</v>
@@ -2382,7 +2376,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="2:13" s="4" customFormat="1">
+    <row r="44" spans="2:13" s="4" customFormat="1" ht="18">
       <c r="B44" s="17"/>
       <c r="C44" s="18">
         <v>1</v>
@@ -2402,7 +2396,7 @@
       <c r="L44" s="1"/>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="2:13" s="4" customFormat="1">
+    <row r="45" spans="2:13" s="4" customFormat="1" ht="18">
       <c r="B45" s="17"/>
       <c r="C45" s="18">
         <v>1</v>
@@ -2438,7 +2432,7 @@
       <c r="L46" s="1"/>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="2:13" s="4" customFormat="1">
+    <row r="47" spans="2:13" s="4" customFormat="1" ht="18">
       <c r="B47" s="17">
         <f>B37+TIME(0,C37,0)</f>
         <v>0.85763888888888884</v>
@@ -2459,7 +2453,7 @@
       <c r="L47" s="25"/>
       <c r="M47" s="3"/>
     </row>
-    <row r="48" spans="2:13" s="4" customFormat="1">
+    <row r="48" spans="2:13" s="4" customFormat="1" ht="18">
       <c r="B48" s="17">
         <f>B47+TIME(0,C47,0)</f>
         <v>0.86111111111111105</v>
@@ -2480,7 +2474,7 @@
       <c r="L48" s="25"/>
       <c r="M48" s="3"/>
     </row>
-    <row r="49" spans="1:13" s="4" customFormat="1">
+    <row r="49" spans="1:13" s="4" customFormat="1" ht="18">
       <c r="B49" s="17">
         <f>B48+TIME(0,C48,0)</f>
         <v>0.86805555555555547</v>
